--- a/docs/NSW_Fuel_Types_WxCalculator.xlsx
+++ b/docs/NSW_Fuel_Types_WxCalculator.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\RFS\FBA\Development_Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geoffg\Documents\repos\PyroXL\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CADB6A35-480D-4015-AE3C-A5782DAD5B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7710" yWindow="3320" windowWidth="25610" windowHeight="14800" xr2:uid="{D7CB8953-04CC-4C22-A399-64767547BD3D}"/>
+    <workbookView xWindow="7716" yWindow="3324" windowWidth="25608" windowHeight="14796"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,12 +34,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Belinda Kenny</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{310758F0-A4E9-4F0D-A435-E9D7C31373FB}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -524,7 +523,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="[$-C09]dddd\,\ d\ mmmm\ yyyy;@"/>
@@ -838,9 +837,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{C823A252-BFF9-41C5-9BB9-5D7A6E7E3AEF}"/>
-    <cellStyle name="Normal 3 2" xfId="2" xr:uid="{F869F9FA-2B0D-44CD-A004-6DBEB42F213A}"/>
-    <cellStyle name="Normal 5" xfId="1" xr:uid="{B7A3EEA6-F0C7-40E7-B6BA-F8512F858BA9}"/>
+    <cellStyle name="Normal 2 2" xfId="3"/>
+    <cellStyle name="Normal 3 2" xfId="2"/>
+    <cellStyle name="Normal 5" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1151,29 +1150,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA86EB34-01D5-4263-8416-5B48BF93AA72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BP75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI4" sqref="AI4"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="3.90625" customWidth="1"/>
-    <col min="3" max="3" width="42.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.54296875" customWidth="1"/>
-    <col min="5" max="25" width="5.6328125" style="36" customWidth="1"/>
-    <col min="26" max="34" width="5.6328125" customWidth="1"/>
-    <col min="35" max="35" width="3.54296875" customWidth="1"/>
-    <col min="36" max="37" width="4.453125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="60" width="8.54296875" customWidth="1"/>
-    <col min="61" max="61" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="3.88671875" customWidth="1"/>
+    <col min="3" max="3" width="42.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5546875" customWidth="1"/>
+    <col min="5" max="25" width="5.6640625" style="36" customWidth="1"/>
+    <col min="26" max="34" width="5.6640625" customWidth="1"/>
+    <col min="35" max="35" width="3.5546875" customWidth="1"/>
+    <col min="36" max="37" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="40" max="60" width="8.5546875" customWidth="1"/>
+    <col min="61" max="61" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:68" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1267,7 +1270,7 @@
       <c r="BO1"/>
       <c r="BP1"/>
     </row>
-    <row r="2" spans="1:68" s="14" customFormat="1" ht="132" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:68" s="14" customFormat="1" ht="131.4" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>12</v>
       </c>
@@ -1449,7 +1452,7 @@
         <v>47</v>
       </c>
       <c r="BI2" s="26">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="BJ2"/>
       <c r="BK2"/>
@@ -1459,7 +1462,7 @@
       <c r="BO2"/>
       <c r="BP2"/>
     </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A3" s="27">
         <v>0</v>
       </c>
@@ -1615,11 +1618,11 @@
       </c>
       <c r="AY3" s="31">
         <f t="shared" ref="AY3:AY66" si="4">1+((E3-1)*(1-EXP(-F3*$BI$2)))</f>
-        <v>4.5399929762490743E-5</v>
+        <v>2.0611535811454473E-9</v>
       </c>
       <c r="AZ3" s="31">
         <f t="shared" ref="AZ3:AZ66" si="5">1+((H3-1)*(1-EXP(-I3*$BI$2)))</f>
-        <v>4.5399929762490743E-5</v>
+        <v>2.0611535811454473E-9</v>
       </c>
       <c r="BA3" s="31">
         <f t="shared" ref="BA3:BA66" si="6">1+((K3-1)*(1-EXP(-L3*$BI$2)))</f>
@@ -1654,7 +1657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A4" s="32">
         <v>1</v>
       </c>
@@ -1810,46 +1813,46 @@
       </c>
       <c r="AY4" s="31">
         <f t="shared" si="4"/>
-        <v>2.7990044481337337</v>
+        <v>2.7999994493758229</v>
       </c>
       <c r="AZ4" s="31">
         <f t="shared" si="5"/>
-        <v>2.3992256818817932</v>
+        <v>2.3999995717367515</v>
       </c>
       <c r="BA4" s="31">
         <f t="shared" si="6"/>
-        <v>2.5203406906114179</v>
+        <v>2.5960339965173338</v>
       </c>
       <c r="BB4" s="31">
         <f t="shared" si="7"/>
-        <v>1.3792723352971348</v>
+        <v>1.5187988300580324</v>
       </c>
       <c r="BC4" s="31">
         <f t="shared" ref="BC4:BC67" si="15">$Q4*(1-EXP(-$R4*$BI$2))+$S4</f>
-        <v>2.7684679562946908</v>
+        <v>2.7699991526505725</v>
       </c>
       <c r="BD4" s="31">
         <f t="shared" ref="BD4:BD67" si="16">$T4*(1-EXP(-$U4*$BI$2))+$V4</f>
-        <v>2.5393449492440605</v>
+        <v>2.6159844214738008</v>
       </c>
       <c r="BE4" s="31">
         <f t="shared" ref="BE4:BE67" si="17">$W4*(1-EXP(-$X4*$BI$2))+$Y4</f>
-        <v>2.4628482235314229</v>
+        <v>2.5558658867053548</v>
       </c>
       <c r="BF4" s="31">
         <f t="shared" ref="BF4:BF67" si="18">AB4+((Z4-AB4)*(1-EXP(-AA4*$BI$2)))</f>
-        <v>8.9950222406686695</v>
+        <v>8.999997246879115</v>
       </c>
       <c r="BG4" s="31">
         <f t="shared" ref="BG4:BG67" si="19">AE4+((AC4-AE4)*(1-EXP(-AD4*$BI$2)))</f>
-        <v>0.95519163846892241</v>
+        <v>0.99776912304100029</v>
       </c>
       <c r="BH4" s="31">
         <f t="shared" ref="BH4:BH67" si="20">AH4+((AF4-AH4)*(1-EXP(-AG4*$BI$2)))</f>
-        <v>0.81606027941427883</v>
+        <v>0.93233235838169359</v>
       </c>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A5" s="32">
         <v>2</v>
       </c>
@@ -2005,46 +2008,46 @@
       </c>
       <c r="AY5" s="31">
         <f t="shared" si="4"/>
-        <v>3.6184670647597401</v>
+        <v>3.6975379186930031</v>
       </c>
       <c r="AZ5" s="31">
         <f t="shared" si="5"/>
-        <v>3.3275262797864356</v>
+        <v>3.3978114832826694</v>
       </c>
       <c r="BA5" s="31">
         <f t="shared" si="6"/>
-        <v>2.1653047597773556</v>
+        <v>2.4253193974482041</v>
       </c>
       <c r="BB5" s="31">
         <f t="shared" si="7"/>
-        <v>1.5689085029457019</v>
+        <v>1.7781982450870486</v>
       </c>
       <c r="BC5" s="31">
         <f t="shared" si="15"/>
-        <v>4.3086065186422795</v>
+        <v>4.4263342344984711</v>
       </c>
       <c r="BD5" s="31">
         <f t="shared" si="16"/>
-        <v>2.8334128220497057</v>
+        <v>3.242502518651841</v>
       </c>
       <c r="BE5" s="31">
         <f t="shared" si="17"/>
-        <v>4.2642411176571153</v>
+        <v>4.7293294335267744</v>
       </c>
       <c r="BF5" s="31">
         <f t="shared" si="18"/>
-        <v>18.456447098398268</v>
+        <v>18.983586124620018</v>
       </c>
       <c r="BG5" s="31">
         <f t="shared" si="19"/>
-        <v>2.3529225355695536</v>
+        <v>2.8556175017331946</v>
       </c>
       <c r="BH5" s="31">
         <f t="shared" si="20"/>
-        <v>2.9603013970713938</v>
+        <v>3.5416617919084681</v>
       </c>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A6" s="32">
         <v>3</v>
       </c>
@@ -2200,46 +2203,46 @@
       </c>
       <c r="AY6" s="31">
         <f t="shared" si="4"/>
-        <v>3.6184670647597401</v>
+        <v>3.6975379186930031</v>
       </c>
       <c r="AZ6" s="31">
         <f t="shared" si="5"/>
-        <v>2.9396052331553628</v>
+        <v>2.9981762360688911</v>
       </c>
       <c r="BA6" s="31">
         <f t="shared" si="6"/>
-        <v>2.6314266636882975</v>
+        <v>2.9954471564274856</v>
       </c>
       <c r="BB6" s="31">
         <f t="shared" si="7"/>
-        <v>2.2642411176571153</v>
+        <v>2.7293294335267744</v>
       </c>
       <c r="BC6" s="31">
         <f t="shared" si="15"/>
-        <v>4.3086065186422795</v>
+        <v>4.4263342344984711</v>
       </c>
       <c r="BD6" s="31">
         <f t="shared" si="16"/>
-        <v>2.8334128220497057</v>
+        <v>3.242502518651841</v>
       </c>
       <c r="BE6" s="31">
         <f t="shared" si="17"/>
-        <v>3.6321205588285577</v>
+        <v>3.8646647167633872</v>
       </c>
       <c r="BF6" s="31">
         <f t="shared" si="18"/>
-        <v>18.456447098398268</v>
+        <v>18.983586124620018</v>
       </c>
       <c r="BG6" s="31">
         <f t="shared" si="19"/>
-        <v>2.3529225355695536</v>
+        <v>2.8556175017331946</v>
       </c>
       <c r="BH6" s="31">
         <f t="shared" si="20"/>
-        <v>2.5142411176571153</v>
+        <v>2.9793294335267744</v>
       </c>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A7" s="32">
         <v>4</v>
       </c>
@@ -2395,46 +2398,46 @@
       </c>
       <c r="AY7" s="31">
         <f t="shared" si="4"/>
-        <v>3.6184670647597401</v>
+        <v>3.6975379186930031</v>
       </c>
       <c r="AZ7" s="31">
         <f t="shared" si="5"/>
-        <v>2.9396052331553628</v>
+        <v>2.9981762360688911</v>
       </c>
       <c r="BA7" s="31">
         <f t="shared" si="6"/>
-        <v>2.6314266636882975</v>
+        <v>2.9954471564274856</v>
       </c>
       <c r="BB7" s="31">
         <f t="shared" si="7"/>
-        <v>2.896361676485673</v>
+        <v>3.593994150290162</v>
       </c>
       <c r="BC7" s="31">
         <f t="shared" si="15"/>
-        <v>4.3086065186422795</v>
+        <v>4.4263342344984711</v>
       </c>
       <c r="BD7" s="31">
         <f t="shared" si="16"/>
-        <v>2.8334128220497057</v>
+        <v>3.242502518651841</v>
       </c>
       <c r="BE7" s="31">
         <f t="shared" si="17"/>
-        <v>4.2642411176571153</v>
+        <v>4.7293294335267744</v>
       </c>
       <c r="BF7" s="31">
         <f t="shared" si="18"/>
-        <v>18.456447098398268</v>
+        <v>18.983586124620018</v>
       </c>
       <c r="BG7" s="31">
         <f t="shared" si="19"/>
-        <v>2.3529225355695536</v>
+        <v>2.8556175017331946</v>
       </c>
       <c r="BH7" s="31">
         <f t="shared" si="20"/>
-        <v>3.396361676485673</v>
+        <v>4.093994150290162</v>
       </c>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A8" s="32">
         <v>5</v>
       </c>
@@ -2590,46 +2593,46 @@
       </c>
       <c r="AY8" s="31">
         <f t="shared" si="4"/>
-        <v>3.6184670647597401</v>
+        <v>3.6975379186930031</v>
       </c>
       <c r="AZ8" s="31">
         <f t="shared" si="5"/>
-        <v>2.9396052331553628</v>
+        <v>2.9981762360688911</v>
       </c>
       <c r="BA8" s="31">
         <f t="shared" si="6"/>
-        <v>2.6314266636882975</v>
+        <v>2.9954471564274856</v>
       </c>
       <c r="BB8" s="31">
         <f t="shared" si="7"/>
-        <v>2.896361676485673</v>
+        <v>3.593994150290162</v>
       </c>
       <c r="BC8" s="31">
         <f t="shared" si="15"/>
-        <v>4.3086065186422795</v>
+        <v>4.4263342344984711</v>
       </c>
       <c r="BD8" s="31">
         <f t="shared" si="16"/>
-        <v>2.8334128220497057</v>
+        <v>3.242502518651841</v>
       </c>
       <c r="BE8" s="31">
         <f t="shared" si="17"/>
-        <v>4.2642411176571153</v>
+        <v>4.7293294335267744</v>
       </c>
       <c r="BF8" s="31">
         <f t="shared" si="18"/>
-        <v>18.456447098398268</v>
+        <v>18.983586124620018</v>
       </c>
       <c r="BG8" s="31">
         <f t="shared" si="19"/>
-        <v>2.3529225355695536</v>
+        <v>2.8556175017331946</v>
       </c>
       <c r="BH8" s="31">
         <f t="shared" si="20"/>
-        <v>3.04351345295425</v>
+        <v>3.6481282635848071</v>
       </c>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A9" s="32">
         <v>6</v>
       </c>
@@ -2785,46 +2788,46 @@
       </c>
       <c r="AY9" s="31">
         <f t="shared" si="4"/>
-        <v>3.7154473264175083</v>
+        <v>3.7974467304964472</v>
       </c>
       <c r="AZ9" s="31">
         <f t="shared" si="5"/>
-        <v>3.5214868031019719</v>
+        <v>3.5976291068895585</v>
       </c>
       <c r="BA9" s="31">
         <f t="shared" si="6"/>
-        <v>2.5537396797031402</v>
+        <v>2.9004258632642719</v>
       </c>
       <c r="BB9" s="31">
         <f t="shared" si="7"/>
-        <v>2.2010290617742596</v>
+        <v>2.6428629618504358</v>
       </c>
       <c r="BC9" s="31">
         <f t="shared" si="15"/>
-        <v>4.1825321784871807</v>
+        <v>4.2964527791539933</v>
       </c>
       <c r="BD9" s="31">
         <f t="shared" si="16"/>
-        <v>2.6081205684927502</v>
+        <v>2.9669407684785214</v>
       </c>
       <c r="BE9" s="31">
         <f t="shared" si="17"/>
-        <v>4.2642411176571153</v>
+        <v>4.7293294335267744</v>
       </c>
       <c r="BF9" s="31">
         <f t="shared" si="18"/>
-        <v>17.486644481820587</v>
+        <v>17.984498006585575</v>
       </c>
       <c r="BG9" s="31">
         <f t="shared" si="19"/>
-        <v>1.5760526957179835</v>
+        <v>1.9054045701010585</v>
       </c>
       <c r="BH9" s="31">
         <f t="shared" si="20"/>
-        <v>2.6281257244236818</v>
+        <v>3.1792553787292279</v>
       </c>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A10" s="32">
         <v>7</v>
       </c>
@@ -2980,46 +2983,46 @@
       </c>
       <c r="AY10" s="31">
         <f t="shared" si="4"/>
-        <v>3.5214868031019719</v>
+        <v>3.5976291068895585</v>
       </c>
       <c r="AZ10" s="31">
         <f t="shared" si="5"/>
-        <v>2.9396052331553628</v>
+        <v>2.9981762360688911</v>
       </c>
       <c r="BA10" s="31">
         <f t="shared" si="6"/>
-        <v>2.3983657117328265</v>
+        <v>2.7103832769378444</v>
       </c>
       <c r="BB10" s="31">
         <f t="shared" si="7"/>
-        <v>2.896361676485673</v>
+        <v>3.593994150290162</v>
       </c>
       <c r="BC10" s="31">
         <f t="shared" si="15"/>
-        <v>4.1825321784871807</v>
+        <v>4.2964527791539933</v>
       </c>
       <c r="BD10" s="31">
         <f t="shared" si="16"/>
-        <v>2.6081205684927502</v>
+        <v>2.9669407684785214</v>
       </c>
       <c r="BE10" s="31">
         <f t="shared" si="17"/>
-        <v>4.2642411176571153</v>
+        <v>4.7293294335267744</v>
       </c>
       <c r="BF10" s="31">
         <f t="shared" si="18"/>
-        <v>17.486644481820587</v>
+        <v>17.984498006585575</v>
       </c>
       <c r="BG10" s="31">
         <f t="shared" si="19"/>
-        <v>1.5760526957179835</v>
+        <v>1.9054045701010585</v>
       </c>
       <c r="BH10" s="31">
         <f t="shared" si="20"/>
-        <v>2.4274531735399711</v>
+        <v>2.9157959052031135</v>
       </c>
     </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A11" s="32">
         <v>8</v>
       </c>
@@ -3175,46 +3178,46 @@
       </c>
       <c r="AY11" s="31">
         <f t="shared" si="4"/>
-        <v>3.5214868031019719</v>
+        <v>3.5976291068895585</v>
       </c>
       <c r="AZ11" s="31">
         <f t="shared" si="5"/>
-        <v>2.9396052331553628</v>
+        <v>2.9981762360688911</v>
       </c>
       <c r="BA11" s="31">
         <f t="shared" si="6"/>
-        <v>2.3983657117328265</v>
+        <v>2.7103832769378444</v>
       </c>
       <c r="BB11" s="31">
         <f t="shared" si="7"/>
-        <v>2.2642411176571153</v>
+        <v>2.7293294335267744</v>
       </c>
       <c r="BC11" s="31">
         <f t="shared" si="15"/>
-        <v>4.1825321784871807</v>
+        <v>4.2964527791539933</v>
       </c>
       <c r="BD11" s="31">
         <f t="shared" si="16"/>
-        <v>2.6081205684927502</v>
+        <v>2.9669407684785214</v>
       </c>
       <c r="BE11" s="31">
         <f t="shared" si="17"/>
-        <v>3.6321205588285577</v>
+        <v>3.8646647167633872</v>
       </c>
       <c r="BF11" s="31">
         <f t="shared" si="18"/>
-        <v>17.486644481820587</v>
+        <v>17.984498006585575</v>
       </c>
       <c r="BG11" s="31">
         <f t="shared" si="19"/>
-        <v>1.5760526957179835</v>
+        <v>1.9054045701010585</v>
       </c>
       <c r="BH11" s="31">
         <f t="shared" si="20"/>
-        <v>2.6427379958931132</v>
+        <v>3.1403824938736489</v>
       </c>
     </row>
-    <row r="12" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A12" s="32">
         <v>9</v>
       </c>
@@ -3370,46 +3373,46 @@
       </c>
       <c r="AY12" s="31">
         <f t="shared" si="4"/>
-        <v>3.5214868031019719</v>
+        <v>3.5976291068895585</v>
       </c>
       <c r="AZ12" s="31">
         <f t="shared" si="5"/>
-        <v>2.9396052331553628</v>
+        <v>2.9981762360688911</v>
       </c>
       <c r="BA12" s="31">
         <f t="shared" si="6"/>
-        <v>2.3983657117328265</v>
+        <v>2.7103832769378444</v>
       </c>
       <c r="BB12" s="31">
         <f t="shared" si="7"/>
-        <v>2.2642411176571153</v>
+        <v>2.7293294335267744</v>
       </c>
       <c r="BC12" s="31">
         <f t="shared" si="15"/>
-        <v>4.1825321784871807</v>
+        <v>4.2964527791539933</v>
       </c>
       <c r="BD12" s="31">
         <f t="shared" si="16"/>
-        <v>2.6081205684927502</v>
+        <v>2.9669407684785214</v>
       </c>
       <c r="BE12" s="31">
         <f t="shared" si="17"/>
-        <v>3.6321205588285577</v>
+        <v>3.8646647167633872</v>
       </c>
       <c r="BF12" s="31">
         <f t="shared" si="18"/>
-        <v>17.486644481820587</v>
+        <v>17.984498006585575</v>
       </c>
       <c r="BG12" s="31">
         <f t="shared" si="19"/>
-        <v>1.5760526957179835</v>
+        <v>1.9054045701010585</v>
       </c>
       <c r="BH12" s="31">
         <f t="shared" si="20"/>
-        <v>1.6321205588285577</v>
+        <v>1.8646647167633872</v>
       </c>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A13" s="32">
         <v>10</v>
       </c>
@@ -3565,46 +3568,46 @@
       </c>
       <c r="AY13" s="31">
         <f t="shared" si="4"/>
-        <v>3.593994150290162</v>
+        <v>3.9450530833337973</v>
       </c>
       <c r="AZ13" s="31">
         <f t="shared" si="5"/>
-        <v>2.7293294335267744</v>
+        <v>2.9633687222225316</v>
       </c>
       <c r="BA13" s="31">
         <f t="shared" si="6"/>
-        <v>2.3983657117328265</v>
+        <v>2.7103832769378444</v>
       </c>
       <c r="BB13" s="31">
         <f t="shared" si="7"/>
-        <v>2.2642411176571153</v>
+        <v>2.7293294335267744</v>
       </c>
       <c r="BC13" s="31">
         <f t="shared" si="15"/>
-        <v>4.3701644027763136</v>
+        <v>4.9061143738895971</v>
       </c>
       <c r="BD13" s="31">
         <f t="shared" si="16"/>
-        <v>2.6081205684927502</v>
+        <v>2.9669407684785214</v>
       </c>
       <c r="BE13" s="31">
         <f t="shared" si="17"/>
-        <v>3.6321205588285577</v>
+        <v>3.8646647167633872</v>
       </c>
       <c r="BF13" s="31">
         <f t="shared" si="18"/>
-        <v>20.887288485557907</v>
+        <v>23.578740305559112</v>
       </c>
       <c r="BG13" s="31">
         <f t="shared" si="19"/>
-        <v>1.5760526957179835</v>
+        <v>1.9054045701010585</v>
       </c>
       <c r="BH13" s="31">
         <f t="shared" si="20"/>
-        <v>2.0113928941256924</v>
+        <v>2.38346354682142</v>
       </c>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A14" s="32">
         <v>11</v>
       </c>
@@ -3760,46 +3763,46 @@
       </c>
       <c r="AY14" s="31">
         <f t="shared" si="4"/>
-        <v>2.9954471564274856</v>
+        <v>3.0947946204290009</v>
       </c>
       <c r="AZ14" s="31">
         <f t="shared" si="5"/>
-        <v>2.6153619837746316</v>
+        <v>2.6957861212996672</v>
       </c>
       <c r="BA14" s="31">
         <f t="shared" si="6"/>
-        <v>2.5563964901740972</v>
+        <v>2.7670318500002784</v>
       </c>
       <c r="BB14" s="31">
         <f t="shared" si="7"/>
-        <v>2.2642411176571153</v>
+        <v>2.7293294335267744</v>
       </c>
       <c r="BC14" s="31">
         <f t="shared" si="15"/>
-        <v>3.2226302776311226</v>
+        <v>3.3626628935570677</v>
       </c>
       <c r="BD14" s="31">
         <f t="shared" si="16"/>
-        <v>2.7898559637002114</v>
+        <v>3.0320866275003202</v>
       </c>
       <c r="BE14" s="31">
         <f t="shared" si="17"/>
-        <v>3.6321205588285577</v>
+        <v>3.8646647167633872</v>
       </c>
       <c r="BF14" s="31">
         <f t="shared" si="18"/>
-        <v>11.452342247953496</v>
+        <v>11.972733726056671</v>
       </c>
       <c r="BG14" s="31">
         <f t="shared" si="19"/>
-        <v>1.7428629618504359</v>
+        <v>1.9652002861114051</v>
       </c>
       <c r="BH14" s="31">
         <f t="shared" si="20"/>
-        <v>1.780356510890549</v>
+        <v>2.1594034883243212</v>
       </c>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A15" s="32">
         <v>12</v>
       </c>
@@ -3955,46 +3958,46 @@
       </c>
       <c r="AY15" s="31">
         <f t="shared" si="4"/>
-        <v>3.0904684495906993</v>
+        <v>3.1945467452113343</v>
       </c>
       <c r="AZ15" s="31">
         <f t="shared" si="5"/>
-        <v>3.2805110359171263</v>
+        <v>3.3940509947760007</v>
       </c>
       <c r="BA15" s="31">
         <f t="shared" si="6"/>
-        <v>2.4699300184977586</v>
+        <v>2.6688634138891523</v>
       </c>
       <c r="BB15" s="31">
         <f t="shared" si="7"/>
-        <v>2.2010290617742596</v>
+        <v>2.6428629618504358</v>
       </c>
       <c r="BC15" s="31">
         <f t="shared" si="15"/>
-        <v>3.2226302776311226</v>
+        <v>3.3626628935570677</v>
       </c>
       <c r="BD15" s="31">
         <f t="shared" si="16"/>
-        <v>2.7898559637002114</v>
+        <v>3.0320866275003202</v>
       </c>
       <c r="BE15" s="31">
         <f t="shared" si="17"/>
-        <v>3.6321205588285577</v>
+        <v>3.8646647167633872</v>
       </c>
       <c r="BF15" s="31">
         <f t="shared" si="18"/>
-        <v>11.452342247953496</v>
+        <v>11.972733726056671</v>
       </c>
       <c r="BG15" s="31">
         <f t="shared" si="19"/>
-        <v>1.7428629618504359</v>
+        <v>1.9652002861114051</v>
       </c>
       <c r="BH15" s="31">
         <f t="shared" si="20"/>
-        <v>1.3217567264771248</v>
+        <v>1.6240641317924036</v>
       </c>
     </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A16" s="32">
         <v>13</v>
       </c>
@@ -4150,46 +4153,46 @@
       </c>
       <c r="AY16" s="31">
         <f t="shared" si="4"/>
-        <v>2.8054045701010581</v>
+        <v>2.8952903708643341</v>
       </c>
       <c r="AZ16" s="31">
         <f t="shared" si="5"/>
-        <v>2.9004258632642719</v>
+        <v>2.9950424956466675</v>
       </c>
       <c r="BA16" s="31">
         <f t="shared" si="6"/>
-        <v>2.8157959052031134</v>
+        <v>3.0615371583336581</v>
       </c>
       <c r="BB16" s="31">
         <f t="shared" si="7"/>
-        <v>1.9481808382428365</v>
+        <v>2.296997075145081</v>
       </c>
       <c r="BC16" s="31">
         <f t="shared" si="15"/>
-        <v>3.2226302776311226</v>
+        <v>3.3626628935570677</v>
       </c>
       <c r="BD16" s="31">
         <f t="shared" si="16"/>
-        <v>2.7898559637002114</v>
+        <v>3.0320866275003202</v>
       </c>
       <c r="BE16" s="31">
         <f t="shared" si="17"/>
-        <v>3.6321205588285577</v>
+        <v>3.8646647167633872</v>
       </c>
       <c r="BF16" s="31">
         <f t="shared" si="18"/>
-        <v>11.452342247953496</v>
+        <v>11.972733726056671</v>
       </c>
       <c r="BG16" s="31">
         <f t="shared" si="19"/>
-        <v>1.7428629618504359</v>
+        <v>1.9652002861114051</v>
       </c>
       <c r="BH16" s="31">
         <f t="shared" si="20"/>
-        <v>1.6181808382428366</v>
+        <v>1.9669970751450809</v>
       </c>
     </row>
-    <row r="17" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A17" s="32">
         <v>14</v>
       </c>
@@ -4345,46 +4348,46 @@
       </c>
       <c r="AY17" s="31">
         <f t="shared" si="4"/>
-        <v>2.9954471564274856</v>
+        <v>3.0947946204290009</v>
       </c>
       <c r="AZ17" s="31">
         <f t="shared" si="5"/>
-        <v>2.6153619837746316</v>
+        <v>2.6957861212996672</v>
       </c>
       <c r="BA17" s="31">
         <f t="shared" si="6"/>
-        <v>2.5563964901740972</v>
+        <v>2.7670318500002784</v>
       </c>
       <c r="BB17" s="31">
         <f t="shared" si="7"/>
-        <v>2.2642411176571153</v>
+        <v>2.7293294335267744</v>
       </c>
       <c r="BC17" s="31">
         <f t="shared" si="15"/>
-        <v>3.2226302776311226</v>
+        <v>3.3626628935570677</v>
       </c>
       <c r="BD17" s="31">
         <f t="shared" si="16"/>
-        <v>2.7898559637002114</v>
+        <v>3.0320866275003202</v>
       </c>
       <c r="BE17" s="31">
         <f t="shared" si="17"/>
-        <v>3.6321205588285577</v>
+        <v>3.8646647167633872</v>
       </c>
       <c r="BF17" s="31">
         <f t="shared" si="18"/>
-        <v>11.452342247953496</v>
+        <v>11.972733726056671</v>
       </c>
       <c r="BG17" s="31">
         <f t="shared" si="19"/>
-        <v>1.7428629618504359</v>
+        <v>1.9652002861114051</v>
       </c>
       <c r="BH17" s="31">
         <f t="shared" si="20"/>
-        <v>2.3942411176571152</v>
+        <v>2.8593294335267743</v>
       </c>
     </row>
-    <row r="18" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A18" s="32">
         <v>15</v>
       </c>
@@ -4540,46 +4543,46 @@
       </c>
       <c r="AY18" s="31">
         <f t="shared" si="4"/>
-        <v>2.9954471564274856</v>
+        <v>3.0947946204290009</v>
       </c>
       <c r="AZ18" s="31">
         <f t="shared" si="5"/>
-        <v>2.6153619837746316</v>
+        <v>2.6957861212996672</v>
       </c>
       <c r="BA18" s="31">
         <f t="shared" si="6"/>
-        <v>2.5563964901740972</v>
+        <v>2.7670318500002784</v>
       </c>
       <c r="BB18" s="31">
         <f t="shared" si="7"/>
-        <v>2.896361676485673</v>
+        <v>3.593994150290162</v>
       </c>
       <c r="BC18" s="31">
         <f t="shared" si="15"/>
-        <v>3.2226302776311226</v>
+        <v>3.3626628935570677</v>
       </c>
       <c r="BD18" s="31">
         <f t="shared" si="16"/>
-        <v>2.7898559637002114</v>
+        <v>3.0320866275003202</v>
       </c>
       <c r="BE18" s="31">
         <f t="shared" si="17"/>
-        <v>4.2642411176571153</v>
+        <v>4.7293294335267744</v>
       </c>
       <c r="BF18" s="31">
         <f t="shared" si="18"/>
-        <v>11.452342247953496</v>
+        <v>11.972733726056671</v>
       </c>
       <c r="BG18" s="31">
         <f t="shared" si="19"/>
-        <v>1.7428629618504359</v>
+        <v>1.9652002861114051</v>
       </c>
       <c r="BH18" s="31">
         <f t="shared" si="20"/>
-        <v>2.2642411176571153</v>
+        <v>2.7293294335267744</v>
       </c>
     </row>
-    <row r="19" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A19" s="32">
         <v>16</v>
       </c>
@@ -4735,46 +4738,46 @@
       </c>
       <c r="AY19" s="31">
         <f t="shared" si="4"/>
-        <v>2.9954471564274856</v>
+        <v>3.0947946204290009</v>
       </c>
       <c r="AZ19" s="31">
         <f t="shared" si="5"/>
-        <v>2.6153619837746316</v>
+        <v>2.6957861212996672</v>
       </c>
       <c r="BA19" s="31">
         <f t="shared" si="6"/>
-        <v>2.5563964901740972</v>
+        <v>2.7670318500002784</v>
       </c>
       <c r="BB19" s="31">
         <f t="shared" si="7"/>
-        <v>2.896361676485673</v>
+        <v>3.593994150290162</v>
       </c>
       <c r="BC19" s="31">
         <f t="shared" si="15"/>
-        <v>3.2226302776311226</v>
+        <v>3.3626628935570677</v>
       </c>
       <c r="BD19" s="31">
         <f t="shared" si="16"/>
-        <v>2.7898559637002114</v>
+        <v>3.0320866275003202</v>
       </c>
       <c r="BE19" s="31">
         <f t="shared" si="17"/>
-        <v>4.2642411176571153</v>
+        <v>4.7293294335267744</v>
       </c>
       <c r="BF19" s="31">
         <f t="shared" si="18"/>
-        <v>11.452342247953496</v>
+        <v>11.972733726056671</v>
       </c>
       <c r="BG19" s="31">
         <f t="shared" si="19"/>
-        <v>1.7428629618504359</v>
+        <v>1.9652002861114051</v>
       </c>
       <c r="BH19" s="31">
         <f t="shared" si="20"/>
-        <v>2.2642411176571153</v>
+        <v>2.7293294335267744</v>
       </c>
     </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A20" s="32">
         <v>17</v>
       </c>
@@ -4930,46 +4933,46 @@
       </c>
       <c r="AY20" s="31">
         <f t="shared" si="4"/>
-        <v>2.9954471564274856</v>
+        <v>3.0947946204290009</v>
       </c>
       <c r="AZ20" s="31">
         <f t="shared" si="5"/>
-        <v>2.6153619837746316</v>
+        <v>2.6957861212996672</v>
       </c>
       <c r="BA20" s="31">
         <f t="shared" si="6"/>
-        <v>2.5563964901740972</v>
+        <v>2.7670318500002784</v>
       </c>
       <c r="BB20" s="31">
         <f t="shared" si="7"/>
-        <v>2.2642411176571153</v>
+        <v>2.7293294335267744</v>
       </c>
       <c r="BC20" s="31">
         <f t="shared" si="15"/>
-        <v>3.2226302776311226</v>
+        <v>3.3626628935570677</v>
       </c>
       <c r="BD20" s="31">
         <f t="shared" si="16"/>
-        <v>2.7898559637002114</v>
+        <v>3.0320866275003202</v>
       </c>
       <c r="BE20" s="31">
         <f t="shared" si="17"/>
-        <v>3.6321205588285577</v>
+        <v>3.8646647167633872</v>
       </c>
       <c r="BF20" s="31">
         <f t="shared" si="18"/>
-        <v>11.452342247953496</v>
+        <v>11.972733726056671</v>
       </c>
       <c r="BG20" s="31">
         <f t="shared" si="19"/>
-        <v>1.7428629618504359</v>
+        <v>1.9652002861114051</v>
       </c>
       <c r="BH20" s="31">
         <f t="shared" si="20"/>
-        <v>1.9039323991248376</v>
+        <v>2.236470544971644</v>
       </c>
     </row>
-    <row r="21" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A21" s="32">
         <v>18</v>
       </c>
@@ -5125,46 +5128,46 @@
       </c>
       <c r="AY21" s="31">
         <f t="shared" si="4"/>
-        <v>2.9954471564274856</v>
+        <v>3.0947946204290009</v>
       </c>
       <c r="AZ21" s="31">
         <f t="shared" si="5"/>
-        <v>2.6153619837746316</v>
+        <v>2.6957861212996672</v>
       </c>
       <c r="BA21" s="31">
         <f t="shared" si="6"/>
-        <v>2.5563964901740972</v>
+        <v>2.7670318500002784</v>
       </c>
       <c r="BB21" s="31">
         <f t="shared" si="7"/>
-        <v>1.6321205588285577</v>
+        <v>1.8646647167633872</v>
       </c>
       <c r="BC21" s="31">
         <f t="shared" si="15"/>
-        <v>3.2226302776311226</v>
+        <v>3.3626628935570677</v>
       </c>
       <c r="BD21" s="31">
         <f t="shared" si="16"/>
-        <v>2.7898559637002114</v>
+        <v>3.0320866275003202</v>
       </c>
       <c r="BE21" s="31">
         <f t="shared" si="17"/>
-        <v>2.6321205588285577</v>
+        <v>2.8646647167633872</v>
       </c>
       <c r="BF21" s="31">
         <f t="shared" si="18"/>
-        <v>11.452342247953496</v>
+        <v>11.972733726056671</v>
       </c>
       <c r="BG21" s="31">
         <f t="shared" si="19"/>
-        <v>1.7428629618504359</v>
+        <v>1.9652002861114051</v>
       </c>
       <c r="BH21" s="31">
         <f t="shared" si="20"/>
-        <v>1.3021205588285576</v>
+        <v>1.5346647167633871</v>
       </c>
     </row>
-    <row r="22" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A22" s="32">
         <v>19</v>
       </c>
@@ -5320,46 +5323,46 @@
       </c>
       <c r="AY22" s="31">
         <f t="shared" si="4"/>
-        <v>2.9954471564274856</v>
+        <v>3.0947946204290009</v>
       </c>
       <c r="AZ22" s="31">
         <f t="shared" si="5"/>
-        <v>2.6153619837746316</v>
+        <v>2.6957861212996672</v>
       </c>
       <c r="BA22" s="31">
         <f t="shared" si="6"/>
-        <v>2.5563964901740972</v>
+        <v>2.7670318500002784</v>
       </c>
       <c r="BB22" s="31">
         <f t="shared" si="7"/>
-        <v>2.2642411176571153</v>
+        <v>2.7293294335267744</v>
       </c>
       <c r="BC22" s="31">
         <f t="shared" si="15"/>
-        <v>3.2226302776311226</v>
+        <v>3.3626628935570677</v>
       </c>
       <c r="BD22" s="31">
         <f t="shared" si="16"/>
-        <v>2.7898559637002114</v>
+        <v>3.0320866275003202</v>
       </c>
       <c r="BE22" s="31">
         <f t="shared" si="17"/>
-        <v>3.6321205588285577</v>
+        <v>3.8646647167633872</v>
       </c>
       <c r="BF22" s="31">
         <f t="shared" si="18"/>
-        <v>11.452342247953496</v>
+        <v>11.972733726056671</v>
       </c>
       <c r="BG22" s="31">
         <f t="shared" si="19"/>
-        <v>1.7428629618504359</v>
+        <v>1.9652002861114051</v>
       </c>
       <c r="BH22" s="31">
         <f t="shared" si="20"/>
-        <v>1.7639323991248377</v>
+        <v>2.0964705449716439</v>
       </c>
     </row>
-    <row r="23" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A23" s="32">
         <v>20</v>
       </c>
@@ -5515,46 +5518,46 @@
       </c>
       <c r="AY23" s="31">
         <f t="shared" si="4"/>
-        <v>2.0097065015137114</v>
+        <v>2.092588258301006</v>
       </c>
       <c r="AZ23" s="31">
         <f t="shared" si="5"/>
-        <v>1.7343320011008809</v>
+        <v>1.7946096424007316</v>
       </c>
       <c r="BA23" s="31">
         <f t="shared" si="6"/>
-        <v>2.38346354682142</v>
+        <v>2.5706949777780252</v>
       </c>
       <c r="BB23" s="31">
         <f t="shared" si="7"/>
-        <v>1.6321205588285577</v>
+        <v>1.8646647167633872</v>
       </c>
       <c r="BC23" s="31">
         <f t="shared" si="15"/>
-        <v>1.8897844525182652</v>
+        <v>2.0276695569916736</v>
       </c>
       <c r="BD23" s="31">
         <f t="shared" si="16"/>
-        <v>2.4007568411566877</v>
+        <v>2.5903286650002508</v>
       </c>
       <c r="BE23" s="31">
         <f t="shared" si="17"/>
-        <v>2.6321205588285577</v>
+        <v>2.8646647167633872</v>
       </c>
       <c r="BF23" s="31">
         <f t="shared" si="18"/>
-        <v>5.5485325075685568</v>
+        <v>5.9629412915050297</v>
       </c>
       <c r="BG23" s="31">
         <f t="shared" si="19"/>
-        <v>0.87819824508704858</v>
+        <v>0.98351592500013918</v>
       </c>
       <c r="BH23" s="31">
         <f t="shared" si="20"/>
-        <v>1.1189085029457018</v>
+        <v>1.3281982450870484</v>
       </c>
     </row>
-    <row r="24" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A24" s="32">
         <v>21</v>
       </c>
@@ -5710,46 +5713,46 @@
       </c>
       <c r="AY24" s="31">
         <f t="shared" si="4"/>
-        <v>3.4940182696562481</v>
+        <v>3.5956799510897479</v>
       </c>
       <c r="AZ24" s="31">
         <f t="shared" si="5"/>
-        <v>2.9184755920432677</v>
+        <v>2.9966768854536521</v>
       </c>
       <c r="BA24" s="31">
         <f t="shared" si="6"/>
-        <v>2.8358300027522025</v>
+        <v>2.9865241060018288</v>
       </c>
       <c r="BB24" s="31">
         <f t="shared" si="7"/>
-        <v>2.2642411176571153</v>
+        <v>2.7293294335267744</v>
       </c>
       <c r="BC24" s="31">
         <f t="shared" si="15"/>
-        <v>4.1414350265241557</v>
+        <v>4.2935365422073533</v>
       </c>
       <c r="BD24" s="31">
         <f t="shared" si="16"/>
-        <v>3.1362733014036235</v>
+        <v>3.213127294060933</v>
       </c>
       <c r="BE24" s="31">
         <f t="shared" si="17"/>
-        <v>3.6321205588285577</v>
+        <v>3.8646647167633872</v>
       </c>
       <c r="BF24" s="31">
         <f t="shared" si="18"/>
-        <v>17.307042532367774</v>
+        <v>17.971753526356043</v>
       </c>
       <c r="BG24" s="31">
         <f t="shared" si="19"/>
-        <v>2.3358300027522025</v>
+        <v>2.4865241060018288</v>
       </c>
       <c r="BH24" s="31">
         <f t="shared" si="20"/>
-        <v>1.6849687823599808</v>
+        <v>2.0105306034687427</v>
       </c>
     </row>
-    <row r="25" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A25" s="32">
         <v>22</v>
       </c>
@@ -5905,46 +5908,46 @@
       </c>
       <c r="AY25" s="31">
         <f t="shared" si="4"/>
-        <v>3.2067544850576168</v>
+        <v>3.6098921711071199</v>
       </c>
       <c r="AZ25" s="31">
         <f t="shared" si="5"/>
-        <v>3.2067544850576168</v>
+        <v>3.6098921711071199</v>
       </c>
       <c r="BA25" s="31">
         <f t="shared" si="6"/>
-        <v>2.7293294335267744</v>
+        <v>2.9633687222225316</v>
       </c>
       <c r="BB25" s="31">
         <f t="shared" si="7"/>
-        <v>2.3274531735399711</v>
+        <v>2.8157959052031134</v>
       </c>
       <c r="BC25" s="31">
         <f t="shared" si="15"/>
-        <v>3.4588760182207023</v>
+        <v>3.9665308821348915</v>
       </c>
       <c r="BD25" s="31">
         <f t="shared" si="16"/>
-        <v>3.5845906619658408</v>
+        <v>3.7449075747224341</v>
       </c>
       <c r="BE25" s="31">
         <f t="shared" si="17"/>
-        <v>4.2642411176571153</v>
+        <v>4.7293294335267744</v>
       </c>
       <c r="BF25" s="31">
         <f t="shared" si="18"/>
-        <v>13.714552196424801</v>
+        <v>15.909412931583205</v>
       </c>
       <c r="BG25" s="31">
         <f t="shared" si="19"/>
-        <v>4.331591810406227</v>
+        <v>4.8230743166673165</v>
       </c>
       <c r="BH25" s="31">
         <f t="shared" si="20"/>
-        <v>2.7681257244236814</v>
+        <v>3.319255378729228</v>
       </c>
     </row>
-    <row r="26" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A26" s="32">
         <v>23</v>
       </c>
@@ -6100,46 +6103,46 @@
       </c>
       <c r="AY26" s="31">
         <f t="shared" si="4"/>
-        <v>3.0432911898681634</v>
+        <v>3.416566825099185</v>
       </c>
       <c r="AZ26" s="31">
         <f t="shared" si="5"/>
-        <v>2.8798278946787104</v>
+        <v>3.22324147909125</v>
       </c>
       <c r="BA26" s="31">
         <f t="shared" si="6"/>
-        <v>3.1616617919084682</v>
+        <v>3.4542109027781644</v>
       </c>
       <c r="BB26" s="31">
         <f t="shared" si="7"/>
-        <v>1.6953326147114134</v>
+        <v>1.9511311884397262</v>
       </c>
       <c r="BC26" s="31">
         <f t="shared" si="15"/>
-        <v>3.4588760182207023</v>
+        <v>3.9665308821348915</v>
       </c>
       <c r="BD26" s="31">
         <f t="shared" si="16"/>
-        <v>3.5845906619658408</v>
+        <v>3.7449075747224341</v>
       </c>
       <c r="BE26" s="31">
         <f t="shared" si="17"/>
-        <v>3.6321205588285577</v>
+        <v>3.8646647167633872</v>
       </c>
       <c r="BF26" s="31">
         <f t="shared" si="18"/>
-        <v>13.714552196424801</v>
+        <v>15.909412931583205</v>
       </c>
       <c r="BG26" s="31">
         <f t="shared" si="19"/>
-        <v>4.331591810406227</v>
+        <v>4.8230743166673165</v>
       </c>
       <c r="BH26" s="31">
         <f t="shared" si="20"/>
-        <v>1.9040353053022634</v>
+        <v>2.2807568411566876</v>
       </c>
     </row>
-    <row r="27" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A27" s="32">
         <v>24</v>
       </c>
@@ -6295,46 +6298,46 @@
       </c>
       <c r="AY27" s="31">
         <f t="shared" si="4"/>
-        <v>2.9615595422734371</v>
+        <v>3.3199041520952175</v>
       </c>
       <c r="AZ27" s="31">
         <f t="shared" si="5"/>
-        <v>2.5529013042998043</v>
+        <v>2.8365907870753801</v>
       </c>
       <c r="BA27" s="31">
         <f t="shared" si="6"/>
-        <v>2.9887288485557906</v>
+        <v>3.2578740305559113</v>
       </c>
       <c r="BB27" s="31">
         <f t="shared" si="7"/>
-        <v>2.2642411176571153</v>
+        <v>2.7293294335267744</v>
       </c>
       <c r="BC27" s="31">
         <f t="shared" si="15"/>
-        <v>3.4588760182207023</v>
+        <v>3.9665308821348915</v>
       </c>
       <c r="BD27" s="31">
         <f t="shared" si="16"/>
-        <v>3.5845906619658408</v>
+        <v>3.7449075747224341</v>
       </c>
       <c r="BE27" s="31">
         <f t="shared" si="17"/>
-        <v>3.6321205588285577</v>
+        <v>3.8646647167633872</v>
       </c>
       <c r="BF27" s="31">
         <f t="shared" si="18"/>
-        <v>13.714552196424801</v>
+        <v>15.909412931583205</v>
       </c>
       <c r="BG27" s="31">
         <f t="shared" si="19"/>
-        <v>4.331591810406227</v>
+        <v>4.8230743166673165</v>
       </c>
       <c r="BH27" s="31">
         <f t="shared" si="20"/>
-        <v>1.9946049500085481</v>
+        <v>2.3899300184977585</v>
       </c>
     </row>
-    <row r="28" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A28" s="32">
         <v>25</v>
       </c>
@@ -6490,15 +6493,15 @@
       </c>
       <c r="AY28" s="31">
         <f t="shared" si="4"/>
-        <v>3.4940182696562481</v>
+        <v>3.5956799510897479</v>
       </c>
       <c r="AZ28" s="31">
         <f t="shared" si="5"/>
-        <v>2.9184755920432677</v>
+        <v>2.9966768854536521</v>
       </c>
       <c r="BA28" s="31">
         <f t="shared" si="6"/>
-        <v>2.8358300027522025</v>
+        <v>2.9865241060018288</v>
       </c>
       <c r="BB28" s="31">
         <f t="shared" si="7"/>
@@ -6506,11 +6509,11 @@
       </c>
       <c r="BC28" s="31">
         <f t="shared" si="15"/>
-        <v>4.1414350265241557</v>
+        <v>4.2935365422073533</v>
       </c>
       <c r="BD28" s="31">
         <f t="shared" si="16"/>
-        <v>3.1362733014036235</v>
+        <v>3.213127294060933</v>
       </c>
       <c r="BE28" s="31">
         <f t="shared" si="17"/>
@@ -6518,18 +6521,18 @@
       </c>
       <c r="BF28" s="31">
         <f t="shared" si="18"/>
-        <v>17.307042532367774</v>
+        <v>17.971753526356043</v>
       </c>
       <c r="BG28" s="31">
         <f t="shared" si="19"/>
-        <v>2.3358300027522025</v>
+        <v>2.4865241060018288</v>
       </c>
       <c r="BH28" s="31">
         <f t="shared" si="20"/>
-        <v>0.45284822353142307</v>
+        <v>0.54586588670535496</v>
       </c>
     </row>
-    <row r="29" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A29" s="32">
         <v>26</v>
       </c>
@@ -6685,46 +6688,46 @@
       </c>
       <c r="AY29" s="31">
         <f t="shared" si="4"/>
-        <v>3.4940182696562481</v>
+        <v>3.5956799510897479</v>
       </c>
       <c r="AZ29" s="31">
         <f t="shared" si="5"/>
-        <v>2.9184755920432677</v>
+        <v>2.9966768854536521</v>
       </c>
       <c r="BA29" s="31">
         <f t="shared" si="6"/>
-        <v>2.8358300027522025</v>
+        <v>2.9865241060018288</v>
       </c>
       <c r="BB29" s="31">
         <f t="shared" si="7"/>
-        <v>2.2642411176571153</v>
+        <v>2.7293294335267744</v>
       </c>
       <c r="BC29" s="31">
         <f t="shared" si="15"/>
-        <v>4.1414350265241557</v>
+        <v>4.2935365422073533</v>
       </c>
       <c r="BD29" s="31">
         <f t="shared" si="16"/>
-        <v>3.1362733014036235</v>
+        <v>3.213127294060933</v>
       </c>
       <c r="BE29" s="31">
         <f t="shared" si="17"/>
-        <v>3.6321205588285577</v>
+        <v>3.8646647167633872</v>
       </c>
       <c r="BF29" s="31">
         <f t="shared" si="18"/>
-        <v>17.307042532367774</v>
+        <v>17.971753526356043</v>
       </c>
       <c r="BG29" s="31">
         <f t="shared" si="19"/>
-        <v>2.3358300027522025</v>
+        <v>2.4865241060018288</v>
       </c>
       <c r="BH29" s="31">
         <f t="shared" si="20"/>
-        <v>1.6321205588285577</v>
+        <v>1.8646647167633872</v>
       </c>
     </row>
-    <row r="30" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A30" s="32">
         <v>27</v>
       </c>
@@ -6880,46 +6883,46 @@
       </c>
       <c r="AY30" s="31">
         <f t="shared" si="4"/>
-        <v>3.0410353138656756</v>
+        <v>3.3463101475452022</v>
       </c>
       <c r="AZ30" s="31">
         <f t="shared" si="5"/>
-        <v>2.7859058996324664</v>
+        <v>3.0530213791020522</v>
       </c>
       <c r="BA30" s="31">
         <f t="shared" si="6"/>
-        <v>2.2756470711660475</v>
+        <v>2.4664438422157513</v>
       </c>
       <c r="BB30" s="31">
         <f t="shared" si="7"/>
-        <v>2.2642411176571153</v>
+        <v>2.7293294335267744</v>
       </c>
       <c r="BC30" s="31">
         <f t="shared" si="15"/>
-        <v>2.9272768871010002</v>
+        <v>3.3037825153057496</v>
       </c>
       <c r="BD30" s="31">
         <f t="shared" si="16"/>
-        <v>3.582099619280537</v>
+        <v>3.7589046271199296</v>
       </c>
       <c r="BE30" s="31">
         <f t="shared" si="17"/>
-        <v>4.2642411176571153</v>
+        <v>4.7293294335267744</v>
       </c>
       <c r="BF30" s="31">
         <f t="shared" si="18"/>
-        <v>10.354745188551014</v>
+        <v>11.753921509582177</v>
       </c>
       <c r="BG30" s="31">
         <f t="shared" si="19"/>
-        <v>4.3568549373426686</v>
+        <v>4.903805681018488</v>
       </c>
       <c r="BH30" s="31">
         <f t="shared" si="20"/>
-        <v>2.590665229422827</v>
+        <v>3.1022623768794522</v>
       </c>
     </row>
-    <row r="31" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A31" s="32">
         <v>28</v>
       </c>
@@ -7075,46 +7078,46 @@
       </c>
       <c r="AY31" s="31">
         <f t="shared" si="4"/>
-        <v>2.7859058996324664</v>
+        <v>3.0530213791020522</v>
       </c>
       <c r="AZ31" s="31">
         <f t="shared" si="5"/>
-        <v>2.4457333473215206</v>
+        <v>2.6619696878445183</v>
       </c>
       <c r="BA31" s="31">
         <f t="shared" si="6"/>
-        <v>2.955992175787939</v>
+        <v>3.2485472247308187</v>
       </c>
       <c r="BB31" s="31">
         <f t="shared" si="7"/>
-        <v>1.4424843911799905</v>
+        <v>1.6052653017343712</v>
       </c>
       <c r="BC31" s="31">
         <f t="shared" si="15"/>
-        <v>2.9272768871010002</v>
+        <v>3.3037825153057496</v>
       </c>
       <c r="BD31" s="31">
         <f t="shared" si="16"/>
-        <v>3.582099619280537</v>
+        <v>3.7589046271199296</v>
       </c>
       <c r="BE31" s="31">
         <f t="shared" si="17"/>
-        <v>2.5791694291197085</v>
+        <v>2.6745125338729885</v>
       </c>
       <c r="BF31" s="31">
         <f t="shared" si="18"/>
-        <v>10.354745188551014</v>
+        <v>11.753921509582177</v>
       </c>
       <c r="BG31" s="31">
         <f t="shared" si="19"/>
-        <v>4.3568549373426686</v>
+        <v>4.903805681018488</v>
       </c>
       <c r="BH31" s="31">
         <f t="shared" si="20"/>
-        <v>0.97927233529713464</v>
+        <v>1.1187988300580325</v>
       </c>
     </row>
-    <row r="32" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A32" s="32">
         <v>29</v>
       </c>
@@ -7270,46 +7273,46 @@
       </c>
       <c r="AY32" s="31">
         <f t="shared" si="4"/>
-        <v>2.9615595422734371</v>
+        <v>3.3199041520952175</v>
       </c>
       <c r="AZ32" s="31">
         <f t="shared" si="5"/>
-        <v>2.5529013042998043</v>
+        <v>2.8365907870753801</v>
       </c>
       <c r="BA32" s="31">
         <f t="shared" si="6"/>
-        <v>2.9887288485557906</v>
+        <v>3.2578740305559113</v>
       </c>
       <c r="BB32" s="31">
         <f t="shared" si="7"/>
-        <v>2.2642411176571153</v>
+        <v>2.7293294335267744</v>
       </c>
       <c r="BC32" s="31">
         <f t="shared" si="15"/>
-        <v>3.4588760182207023</v>
+        <v>3.9665308821348915</v>
       </c>
       <c r="BD32" s="31">
         <f t="shared" si="16"/>
-        <v>3.5845906619658408</v>
+        <v>3.7449075747224341</v>
       </c>
       <c r="BE32" s="31">
         <f t="shared" si="17"/>
-        <v>3.6321205588285577</v>
+        <v>3.8646647167633872</v>
       </c>
       <c r="BF32" s="31">
         <f t="shared" si="18"/>
-        <v>13.714552196424801</v>
+        <v>15.909412931583205</v>
       </c>
       <c r="BG32" s="31">
         <f t="shared" si="19"/>
-        <v>4.331591810406227</v>
+        <v>4.8230743166673165</v>
       </c>
       <c r="BH32" s="31">
         <f t="shared" si="20"/>
-        <v>2.5142411176571153</v>
+        <v>2.9793294335267744</v>
       </c>
     </row>
-    <row r="33" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A33" s="32">
         <v>30</v>
       </c>
@@ -7463,46 +7466,46 @@
       </c>
       <c r="AY33" s="31">
         <f t="shared" si="4"/>
-        <v>2.9615595422734371</v>
+        <v>3.3199041520952175</v>
       </c>
       <c r="AZ33" s="31">
         <f t="shared" si="5"/>
-        <v>2.5529013042998043</v>
+        <v>2.8365907870753801</v>
       </c>
       <c r="BA33" s="31">
         <f t="shared" si="6"/>
-        <v>2.9887288485557906</v>
+        <v>3.2578740305559113</v>
       </c>
       <c r="BB33" s="31">
         <f t="shared" si="7"/>
-        <v>2.2642411176571153</v>
+        <v>2.7293294335267744</v>
       </c>
       <c r="BC33" s="31">
         <f t="shared" si="15"/>
-        <v>3.4588760182207023</v>
+        <v>3.9665308821348915</v>
       </c>
       <c r="BD33" s="31">
         <f t="shared" si="16"/>
-        <v>3.5845906619658408</v>
+        <v>3.7449075747224341</v>
       </c>
       <c r="BE33" s="31">
         <f t="shared" si="17"/>
-        <v>3.6321205588285577</v>
+        <v>3.8646647167633872</v>
       </c>
       <c r="BF33" s="31">
         <f t="shared" si="18"/>
-        <v>13.714552196424801</v>
+        <v>15.909412931583205</v>
       </c>
       <c r="BG33" s="31">
         <f t="shared" si="19"/>
-        <v>4.331591810406227</v>
+        <v>4.8230743166673165</v>
       </c>
       <c r="BH33" s="31">
         <f t="shared" si="20"/>
-        <v>2.0556413332436914</v>
+        <v>2.443990076994857</v>
       </c>
     </row>
-    <row r="34" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A34" s="32">
         <v>31</v>
       </c>
@@ -7656,46 +7659,46 @@
       </c>
       <c r="AY34" s="31">
         <f t="shared" si="4"/>
-        <v>3.0198615836140825</v>
+        <v>3.4705536222435538</v>
       </c>
       <c r="AZ34" s="31">
         <f t="shared" si="5"/>
-        <v>2.5537396797031402</v>
+        <v>2.9004258632642719</v>
       </c>
       <c r="BA34" s="31">
         <f t="shared" si="6"/>
-        <v>2.5537396797031402</v>
+        <v>2.9004258632642719</v>
       </c>
       <c r="BB34" s="31">
         <f t="shared" si="7"/>
-        <v>2.896361676485673</v>
+        <v>3.593994150290162</v>
       </c>
       <c r="BC34" s="31">
         <f t="shared" si="15"/>
-        <v>3.6262411369855005</v>
+        <v>4.3438815369570429</v>
       </c>
       <c r="BD34" s="31">
         <f t="shared" si="16"/>
-        <v>2.9276994902055566</v>
+        <v>3.1547789404380984</v>
       </c>
       <c r="BE34" s="31">
         <f t="shared" si="17"/>
-        <v>4.2642411176571153</v>
+        <v>4.7293294335267744</v>
       </c>
       <c r="BF34" s="31">
         <f t="shared" si="18"/>
-        <v>15.760526957179835</v>
+        <v>19.054045701010583</v>
       </c>
       <c r="BG34" s="31">
         <f t="shared" si="19"/>
-        <v>2.0091136476734546</v>
+        <v>2.3904684495906992</v>
       </c>
       <c r="BH34" s="31">
         <f t="shared" si="20"/>
-        <v>2.3906652294228268</v>
+        <v>2.9022623768794524</v>
       </c>
     </row>
-    <row r="35" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A35" s="32">
         <v>32</v>
       </c>
@@ -7849,46 +7852,46 @@
       </c>
       <c r="AY35" s="31">
         <f t="shared" si="4"/>
-        <v>2.3983657117328265</v>
+        <v>2.7103832769378444</v>
       </c>
       <c r="AZ35" s="31">
         <f t="shared" si="5"/>
-        <v>2.3983657117328265</v>
+        <v>2.7103832769378444</v>
       </c>
       <c r="BA35" s="31">
         <f t="shared" si="6"/>
-        <v>1.7768698398515701</v>
+        <v>1.9502129316321359</v>
       </c>
       <c r="BB35" s="31">
         <f t="shared" si="7"/>
-        <v>2.3906652294228268</v>
+        <v>2.9022623768794524</v>
       </c>
       <c r="BC35" s="31">
         <f t="shared" si="15"/>
-        <v>3.6262411369855005</v>
+        <v>4.3438815369570429</v>
       </c>
       <c r="BD35" s="31">
         <f t="shared" si="16"/>
-        <v>2.9276994902055566</v>
+        <v>3.1547789404380984</v>
       </c>
       <c r="BE35" s="31">
         <f t="shared" si="17"/>
-        <v>3.6321205588285577</v>
+        <v>3.8646647167633872</v>
       </c>
       <c r="BF35" s="31">
         <f t="shared" si="18"/>
-        <v>15.760526957179835</v>
+        <v>19.054045701010583</v>
       </c>
       <c r="BG35" s="31">
         <f t="shared" si="19"/>
-        <v>2.0091136476734546</v>
+        <v>2.3904684495906992</v>
       </c>
       <c r="BH35" s="31">
         <f t="shared" si="20"/>
-        <v>1.9797868661842641</v>
+        <v>2.3402303109832499</v>
       </c>
     </row>
-    <row r="36" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A36" s="32">
         <v>33</v>
       </c>
@@ -8042,15 +8045,15 @@
       </c>
       <c r="AY36" s="31">
         <f t="shared" si="4"/>
-        <v>2.7558276604117582</v>
+        <v>3.1103231512475946</v>
       </c>
       <c r="AZ36" s="31">
         <f t="shared" si="5"/>
-        <v>2.356775919409086</v>
+        <v>2.6307042532367779</v>
       </c>
       <c r="BA36" s="31">
         <f t="shared" si="6"/>
-        <v>2.5537396797031402</v>
+        <v>2.9004258632642719</v>
       </c>
       <c r="BB36" s="31">
         <f t="shared" si="7"/>
@@ -8058,30 +8061,30 @@
       </c>
       <c r="BC36" s="31">
         <f t="shared" si="15"/>
-        <v>2.8442156201163011</v>
+        <v>3.3356752778659833</v>
       </c>
       <c r="BD36" s="31">
         <f t="shared" si="16"/>
-        <v>2.9276994902055566</v>
+        <v>3.1547789404380984</v>
       </c>
       <c r="BE36" s="31">
         <f t="shared" si="17"/>
-        <v>1.6321205588285577</v>
+        <v>1.8646647167633872</v>
       </c>
       <c r="BF36" s="31">
         <f t="shared" si="18"/>
-        <v>10.178190043061463</v>
+        <v>12.03123465424879</v>
       </c>
       <c r="BG36" s="31">
         <f t="shared" si="19"/>
-        <v>2.0091136476734546</v>
+        <v>2.3904684495906992</v>
       </c>
       <c r="BH36" s="31">
         <f t="shared" si="20"/>
-        <v>0.59512680235656146</v>
+        <v>0.76255859606963883</v>
       </c>
     </row>
-    <row r="37" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A37" s="32">
         <v>34</v>
       </c>
@@ -8235,15 +8238,15 @@
       </c>
       <c r="AY37" s="31">
         <f t="shared" si="4"/>
-        <v>2.7558276604117582</v>
+        <v>3.1103231512475946</v>
       </c>
       <c r="AZ37" s="31">
         <f t="shared" si="5"/>
-        <v>2.356775919409086</v>
+        <v>2.6307042532367779</v>
       </c>
       <c r="BA37" s="31">
         <f t="shared" si="6"/>
-        <v>2.5537396797031402</v>
+        <v>2.9004258632642719</v>
       </c>
       <c r="BB37" s="31">
         <f t="shared" si="7"/>
@@ -8251,11 +8254,11 @@
       </c>
       <c r="BC37" s="31">
         <f t="shared" si="15"/>
-        <v>2.8442156201163011</v>
+        <v>3.3356752778659833</v>
       </c>
       <c r="BD37" s="31">
         <f t="shared" si="16"/>
-        <v>2.9276994902055566</v>
+        <v>3.1547789404380984</v>
       </c>
       <c r="BE37" s="31">
         <f t="shared" si="17"/>
@@ -8263,18 +8266,18 @@
       </c>
       <c r="BF37" s="31">
         <f t="shared" si="18"/>
-        <v>10.178190043061463</v>
+        <v>12.03123465424879</v>
       </c>
       <c r="BG37" s="31">
         <f t="shared" si="19"/>
-        <v>2.0091136476734546</v>
+        <v>2.3904684495906992</v>
       </c>
       <c r="BH37" s="31">
         <f t="shared" si="20"/>
-        <v>0.6503087185322779</v>
+        <v>0.78285888855513086</v>
       </c>
     </row>
-    <row r="38" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A38" s="32">
         <v>35</v>
       </c>
@@ -8428,46 +8431,46 @@
       </c>
       <c r="AY38" s="31">
         <f t="shared" si="4"/>
-        <v>2.9777820069235155</v>
+        <v>2.9997531803918269</v>
       </c>
       <c r="AZ38" s="31">
         <f t="shared" si="5"/>
-        <v>3.1755602076158671</v>
+        <v>3.1997284984310097</v>
       </c>
       <c r="BA38" s="31">
         <f t="shared" si="6"/>
-        <v>3.0904684495906993</v>
+        <v>3.1945467452113343</v>
       </c>
       <c r="BB38" s="31">
         <f t="shared" si="7"/>
-        <v>1.8217567264771248</v>
+        <v>2.1240641317924034</v>
       </c>
       <c r="BC38" s="31">
         <f t="shared" si="15"/>
-        <v>2.5163378373735439</v>
+        <v>2.5397371371172954</v>
       </c>
       <c r="BD38" s="31">
         <f t="shared" si="16"/>
-        <v>2.9669407684785214</v>
+        <v>3.0648689829943003</v>
       </c>
       <c r="BE38" s="31">
         <f t="shared" si="17"/>
-        <v>3.6321205588285577</v>
+        <v>3.8646647167633872</v>
       </c>
       <c r="BF38" s="31">
         <f t="shared" si="18"/>
-        <v>7.9222370242323041</v>
+        <v>7.9991361313713938</v>
       </c>
       <c r="BG38" s="31">
         <f t="shared" si="19"/>
-        <v>1.9054045701010585</v>
+        <v>1.9952903708643339</v>
       </c>
       <c r="BH38" s="31">
         <f t="shared" si="20"/>
-        <v>1.261653820299699</v>
+        <v>1.5197778356073597</v>
       </c>
     </row>
-    <row r="39" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A39" s="32">
         <v>36</v>
       </c>
@@ -8621,46 +8624,46 @@
       </c>
       <c r="AY39" s="31">
         <f t="shared" si="4"/>
-        <v>2.9633687222225316</v>
+        <v>2.9993290747441952</v>
       </c>
       <c r="AZ39" s="31">
         <f t="shared" si="5"/>
-        <v>2.5706949777780252</v>
+        <v>2.599463259795356</v>
       </c>
       <c r="BA39" s="31">
         <f t="shared" si="6"/>
-        <v>2.0375976601160648</v>
+        <v>2.1780212333335189</v>
       </c>
       <c r="BB39" s="31">
         <f t="shared" si="7"/>
-        <v>2.2642411176571153</v>
+        <v>2.7293294335267744</v>
       </c>
       <c r="BC39" s="31">
         <f t="shared" si="15"/>
-        <v>2.9329288080559532</v>
+        <v>2.9791378610462904</v>
       </c>
       <c r="BD39" s="31">
         <f t="shared" si="16"/>
-        <v>2.0375976601160648</v>
+        <v>2.1780212333335189</v>
       </c>
       <c r="BE39" s="31">
         <f t="shared" si="17"/>
-        <v>3.6321205588285577</v>
+        <v>3.8646647167633872</v>
       </c>
       <c r="BF39" s="31">
         <f t="shared" si="18"/>
-        <v>9.8351592500013929</v>
+        <v>9.996980836348877</v>
       </c>
       <c r="BG39" s="31">
         <f t="shared" si="19"/>
-        <v>0.44586588670535499</v>
+        <v>0.49267374444450629</v>
       </c>
       <c r="BH39" s="31">
         <f t="shared" si="20"/>
-        <v>1.397302475004274</v>
+        <v>1.5949650092488792</v>
       </c>
     </row>
-    <row r="40" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A40" s="32">
         <v>37</v>
       </c>
@@ -8814,46 +8817,46 @@
       </c>
       <c r="AY40" s="31">
         <f t="shared" si="4"/>
-        <v>2.9633687222225316</v>
+        <v>2.9993290747441952</v>
       </c>
       <c r="AZ40" s="31">
         <f t="shared" si="5"/>
-        <v>2.5706949777780252</v>
+        <v>2.599463259795356</v>
       </c>
       <c r="BA40" s="31">
         <f t="shared" si="6"/>
-        <v>2.0375976601160648</v>
+        <v>2.1780212333335189</v>
       </c>
       <c r="BB40" s="31">
         <f t="shared" si="7"/>
-        <v>2.896361676485673</v>
+        <v>3.593994150290162</v>
       </c>
       <c r="BC40" s="31">
         <f t="shared" si="15"/>
-        <v>2.9329288080559532</v>
+        <v>2.9791378610462904</v>
       </c>
       <c r="BD40" s="31">
         <f t="shared" si="16"/>
-        <v>2.0375976601160648</v>
+        <v>2.1780212333335189</v>
       </c>
       <c r="BE40" s="31">
         <f t="shared" si="17"/>
-        <v>4.2642411176571153</v>
+        <v>4.7293294335267744</v>
       </c>
       <c r="BF40" s="31">
         <f t="shared" si="18"/>
-        <v>9.8351592500013929</v>
+        <v>9.996980836348877</v>
       </c>
       <c r="BG40" s="31">
         <f t="shared" si="19"/>
-        <v>0.44586588670535499</v>
+        <v>0.49267374444450629</v>
       </c>
       <c r="BH40" s="31">
         <f t="shared" si="20"/>
-        <v>2.5274531735399708</v>
+        <v>3.0157959052031131</v>
       </c>
     </row>
-    <row r="41" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A41" s="32">
         <v>38</v>
       </c>
@@ -9007,46 +9010,46 @@
       </c>
       <c r="AY41" s="31">
         <f t="shared" si="4"/>
-        <v>2.9633687222225316</v>
+        <v>2.9993290747441952</v>
       </c>
       <c r="AZ41" s="31">
         <f t="shared" si="5"/>
-        <v>2.5706949777780252</v>
+        <v>2.599463259795356</v>
       </c>
       <c r="BA41" s="31">
         <f t="shared" si="6"/>
-        <v>2.0375976601160648</v>
+        <v>2.1780212333335189</v>
       </c>
       <c r="BB41" s="31">
         <f t="shared" si="7"/>
-        <v>2.2642411176571153</v>
+        <v>2.7293294335267744</v>
       </c>
       <c r="BC41" s="31">
         <f t="shared" si="15"/>
-        <v>2.9329288080559532</v>
+        <v>2.9791378610462904</v>
       </c>
       <c r="BD41" s="31">
         <f t="shared" si="16"/>
-        <v>2.0375976601160648</v>
+        <v>2.1780212333335189</v>
       </c>
       <c r="BE41" s="31">
         <f t="shared" si="17"/>
-        <v>3.6321205588285577</v>
+        <v>3.8646647167633872</v>
       </c>
       <c r="BF41" s="31">
         <f t="shared" si="18"/>
-        <v>9.8351592500013929</v>
+        <v>9.996980836348877</v>
       </c>
       <c r="BG41" s="31">
         <f t="shared" si="19"/>
-        <v>0.44586588670535499</v>
+        <v>0.49267374444450629</v>
       </c>
       <c r="BH41" s="31">
         <f t="shared" si="20"/>
-        <v>1.6611870817708403</v>
+        <v>1.9448909544513322</v>
       </c>
     </row>
-    <row r="42" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A42" s="32">
         <v>39</v>
       </c>
@@ -9200,46 +9203,46 @@
       </c>
       <c r="AY42" s="31">
         <f t="shared" si="4"/>
-        <v>3.1854897427539126</v>
+        <v>3.2942988699936673</v>
       </c>
       <c r="AZ42" s="31">
         <f t="shared" si="5"/>
-        <v>2.7103832769378444</v>
+        <v>2.7955382460820006</v>
       </c>
       <c r="BA42" s="31">
         <f t="shared" si="6"/>
-        <v>2.5563964901740972</v>
+        <v>2.7670318500002784</v>
       </c>
       <c r="BB42" s="31">
         <f t="shared" si="7"/>
-        <v>2.2642411176571153</v>
+        <v>2.7293294335267744</v>
       </c>
       <c r="BC42" s="31">
         <f t="shared" si="15"/>
-        <v>3.8591877691717995</v>
+        <v>4.0119936304693677</v>
       </c>
       <c r="BD42" s="31">
         <f t="shared" si="16"/>
-        <v>2.7898559637002114</v>
+        <v>3.0320866275003202</v>
       </c>
       <c r="BE42" s="31">
         <f t="shared" si="17"/>
-        <v>3.6321205588285577</v>
+        <v>3.8646647167633872</v>
       </c>
       <c r="BF42" s="31">
         <f t="shared" si="18"/>
-        <v>15.302981042849904</v>
+        <v>15.965297469526671</v>
       </c>
       <c r="BG42" s="31">
         <f t="shared" si="19"/>
-        <v>1.7428629618504359</v>
+        <v>1.9652002861114051</v>
       </c>
       <c r="BH42" s="31">
         <f t="shared" si="20"/>
-        <v>0.81606027941427883</v>
+        <v>0.93233235838169359</v>
       </c>
     </row>
-    <row r="43" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A43" s="32">
         <v>40</v>
       </c>
@@ -9393,46 +9396,46 @@
       </c>
       <c r="AY43" s="31">
         <f t="shared" si="4"/>
-        <v>2.9633687222225316</v>
+        <v>2.9993290747441952</v>
       </c>
       <c r="AZ43" s="31">
         <f t="shared" si="5"/>
-        <v>2.5706949777780252</v>
+        <v>2.599463259795356</v>
       </c>
       <c r="BA43" s="31">
         <f t="shared" si="6"/>
-        <v>2.0375976601160648</v>
+        <v>2.1780212333335189</v>
       </c>
       <c r="BB43" s="31">
         <f t="shared" si="7"/>
-        <v>1.6321205588285577</v>
+        <v>1.8646647167633872</v>
       </c>
       <c r="BC43" s="31">
         <f t="shared" si="15"/>
-        <v>2.9329288080559532</v>
+        <v>2.9791378610462904</v>
       </c>
       <c r="BD43" s="31">
         <f t="shared" si="16"/>
-        <v>2.0375976601160648</v>
+        <v>2.1780212333335189</v>
       </c>
       <c r="BE43" s="31">
         <f t="shared" si="17"/>
-        <v>2.6321205588285577</v>
+        <v>2.8646647167633872</v>
       </c>
       <c r="BF43" s="31">
         <f t="shared" si="18"/>
-        <v>9.8351592500013929</v>
+        <v>9.996980836348877</v>
       </c>
       <c r="BG43" s="31">
         <f t="shared" si="19"/>
-        <v>0.44586588670535499</v>
+        <v>0.49267374444450629</v>
       </c>
       <c r="BH43" s="31">
         <f t="shared" si="20"/>
-        <v>1.1056964470628461</v>
+        <v>1.2917317734107097</v>
       </c>
     </row>
-    <row r="44" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A44" s="32">
         <v>41</v>
       </c>
@@ -9586,46 +9589,46 @@
       </c>
       <c r="AY44" s="31">
         <f t="shared" si="4"/>
-        <v>2.9633687222225316</v>
+        <v>2.9993290747441952</v>
       </c>
       <c r="AZ44" s="31">
         <f t="shared" si="5"/>
-        <v>2.5706949777780252</v>
+        <v>2.599463259795356</v>
       </c>
       <c r="BA44" s="31">
         <f t="shared" si="6"/>
-        <v>2.0375976601160648</v>
+        <v>2.1780212333335189</v>
       </c>
       <c r="BB44" s="31">
         <f t="shared" si="7"/>
-        <v>1.6321205588285577</v>
+        <v>1.8646647167633872</v>
       </c>
       <c r="BC44" s="31">
         <f t="shared" si="15"/>
-        <v>2.9329288080559532</v>
+        <v>2.9791378610462904</v>
       </c>
       <c r="BD44" s="31">
         <f t="shared" si="16"/>
-        <v>2.0375976601160648</v>
+        <v>2.1780212333335189</v>
       </c>
       <c r="BE44" s="31">
         <f t="shared" si="17"/>
-        <v>2.6321205588285577</v>
+        <v>2.8646647167633872</v>
       </c>
       <c r="BF44" s="31">
         <f t="shared" si="18"/>
-        <v>9.8351592500013929</v>
+        <v>9.996980836348877</v>
       </c>
       <c r="BG44" s="31">
         <f t="shared" si="19"/>
-        <v>0.44586588670535499</v>
+        <v>0.49267374444450629</v>
       </c>
       <c r="BH44" s="31">
         <f t="shared" si="20"/>
-        <v>1.6321205588285577</v>
+        <v>1.8646647167633872</v>
       </c>
     </row>
-    <row r="45" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A45" s="32">
         <v>42</v>
       </c>
@@ -9779,15 +9782,15 @@
       </c>
       <c r="AY45" s="31">
         <f t="shared" si="4"/>
-        <v>0.49658530379140942</v>
+        <v>0.24659696394160646</v>
       </c>
       <c r="AZ45" s="31">
         <f t="shared" si="5"/>
-        <v>0.49658530379140942</v>
+        <v>0.24659696394160646</v>
       </c>
       <c r="BA45" s="31">
         <f t="shared" si="6"/>
-        <v>0.22313016014842979</v>
+        <v>4.9787068367863951E-2</v>
       </c>
       <c r="BB45" s="31">
         <f t="shared" si="7"/>
@@ -9795,11 +9798,11 @@
       </c>
       <c r="BC45" s="31">
         <f t="shared" si="15"/>
-        <v>3.2645976285476639</v>
+        <v>4.1087329218510957</v>
       </c>
       <c r="BD45" s="31">
         <f t="shared" si="16"/>
-        <v>6.0103136622627709</v>
+        <v>6.846354718186519</v>
       </c>
       <c r="BE45" s="31">
         <f t="shared" si="17"/>
@@ -9807,18 +9810,18 @@
       </c>
       <c r="BF45" s="31">
         <f t="shared" si="18"/>
-        <v>13.37239155962212</v>
+        <v>18.672144364437944</v>
       </c>
       <c r="BG45" s="31">
         <f t="shared" si="19"/>
-        <v>10.456316174307901</v>
+        <v>12.43242742060635</v>
       </c>
       <c r="BH45" s="31">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A46" s="32">
         <v>43</v>
       </c>
@@ -9972,15 +9975,15 @@
       </c>
       <c r="AY46" s="31">
         <f t="shared" si="4"/>
-        <v>2.4787521766663767E-3</v>
+        <v>6.1442123533428372E-6</v>
       </c>
       <c r="AZ46" s="31">
         <f t="shared" si="5"/>
-        <v>2.4787521766663767E-3</v>
+        <v>6.1442123533428372E-6</v>
       </c>
       <c r="BA46" s="31">
         <f t="shared" si="6"/>
-        <v>2.4787521766663767E-3</v>
+        <v>6.1442123533428372E-6</v>
       </c>
       <c r="BB46" s="31">
         <f t="shared" si="7"/>
@@ -9988,11 +9991,11 @@
       </c>
       <c r="BC46" s="31">
         <f t="shared" si="15"/>
-        <v>1.9970254973880004</v>
+        <v>1.999992626945176</v>
       </c>
       <c r="BD46" s="31">
         <f t="shared" si="16"/>
-        <v>4.4905807417286674</v>
+        <v>4.4999766519930571</v>
       </c>
       <c r="BE46" s="31">
         <f t="shared" si="17"/>
@@ -10000,18 +10003,18 @@
       </c>
       <c r="BF46" s="31">
         <f t="shared" si="18"/>
-        <v>5.7905807417286681</v>
+        <v>5.7999766519930569</v>
       </c>
       <c r="BG46" s="31">
         <f t="shared" si="19"/>
-        <v>5.9851274869400015</v>
+        <v>5.9999631347258795</v>
       </c>
       <c r="BH46" s="31">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A47" s="32">
         <v>44</v>
       </c>
@@ -10165,15 +10168,15 @@
       </c>
       <c r="AY47" s="31">
         <f t="shared" si="4"/>
-        <v>0.36787944117144233</v>
+        <v>0.1353352832366127</v>
       </c>
       <c r="AZ47" s="31">
         <f t="shared" si="5"/>
-        <v>0.36787944117144233</v>
+        <v>0.1353352832366127</v>
       </c>
       <c r="BA47" s="31">
         <f t="shared" si="6"/>
-        <v>8.2084998623898842E-2</v>
+        <v>6.7379469990854757E-3</v>
       </c>
       <c r="BB47" s="31">
         <f t="shared" si="7"/>
@@ -10181,11 +10184,11 @@
       </c>
       <c r="BC47" s="31">
         <f t="shared" si="15"/>
-        <v>1.6113928941256921</v>
+        <v>1.9834635468214197</v>
       </c>
       <c r="BD47" s="31">
         <f t="shared" si="16"/>
-        <v>3.794787503440253</v>
+        <v>3.9831551325022865</v>
       </c>
       <c r="BE47" s="31">
         <f t="shared" si="17"/>
@@ -10193,18 +10196,18 @@
       </c>
       <c r="BF47" s="31">
         <f t="shared" si="18"/>
-        <v>4.7238148500256436</v>
+        <v>5.909790055493275</v>
       </c>
       <c r="BG47" s="31">
         <f t="shared" si="19"/>
-        <v>5.5156985081189971</v>
+        <v>5.9602461127053958</v>
       </c>
       <c r="BH47" s="31">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A48" s="32">
         <v>45</v>
       </c>
@@ -10358,11 +10361,11 @@
       </c>
       <c r="AY48" s="31">
         <f t="shared" si="4"/>
-        <v>0.22313016014842979</v>
+        <v>4.9787068367863951E-2</v>
       </c>
       <c r="AZ48" s="31">
         <f t="shared" si="5"/>
-        <v>0.22313016014842979</v>
+        <v>4.9787068367863951E-2</v>
       </c>
       <c r="BA48" s="31">
         <f t="shared" si="6"/>
@@ -10374,7 +10377,7 @@
       </c>
       <c r="BC48" s="31">
         <f t="shared" si="15"/>
-        <v>0.8438088878960992</v>
+        <v>0.96514905214249525</v>
       </c>
       <c r="BD48" s="31">
         <f t="shared" si="16"/>
@@ -10386,7 +10389,7 @@
       </c>
       <c r="BF48" s="31">
         <f t="shared" si="18"/>
-        <v>2.1760526957179835</v>
+        <v>2.5054045701010583</v>
       </c>
       <c r="BG48" s="31">
         <f t="shared" si="19"/>
@@ -10397,7 +10400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A49" s="32">
         <v>46</v>
       </c>
@@ -10551,11 +10554,11 @@
       </c>
       <c r="AY49" s="31">
         <f t="shared" si="4"/>
-        <v>0.1353352832366127</v>
+        <v>1.831563888873422E-2</v>
       </c>
       <c r="AZ49" s="31">
         <f t="shared" si="5"/>
-        <v>0.1353352832366127</v>
+        <v>1.831563888873422E-2</v>
       </c>
       <c r="BA49" s="31">
         <f t="shared" si="6"/>
@@ -10567,7 +10570,7 @@
       </c>
       <c r="BC49" s="31">
         <f t="shared" si="15"/>
-        <v>1.796997075145081</v>
+        <v>1.9725265416668987</v>
       </c>
       <c r="BD49" s="31">
         <f t="shared" si="16"/>
@@ -10579,7 +10582,7 @@
       </c>
       <c r="BF49" s="31">
         <f t="shared" si="18"/>
-        <v>5.1774576971115813</v>
+        <v>5.7157480611118228</v>
       </c>
       <c r="BG49" s="31">
         <f t="shared" si="19"/>
@@ -10590,7 +10593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A50" s="32">
         <v>47</v>
       </c>
@@ -10744,15 +10747,15 @@
       </c>
       <c r="AY50" s="31">
         <f t="shared" si="4"/>
-        <v>2.9950424956466675</v>
+        <v>2.9999877115752933</v>
       </c>
       <c r="AZ50" s="31">
         <f t="shared" si="5"/>
-        <v>2.5960339965173338</v>
+        <v>2.5999901692602347</v>
       </c>
       <c r="BA50" s="31">
         <f t="shared" si="6"/>
-        <v>1.8646647167633872</v>
+        <v>1.9816843611112658</v>
       </c>
       <c r="BB50" s="31">
         <f t="shared" si="7"/>
@@ -10760,30 +10763,30 @@
       </c>
       <c r="BC50" s="31">
         <f t="shared" si="15"/>
-        <v>1.9253193974482041</v>
+        <v>1.9962818717350004</v>
       </c>
       <c r="BD50" s="31">
         <f t="shared" si="16"/>
-        <v>0.91791500137610116</v>
+        <v>0.99326205300091452</v>
       </c>
       <c r="BE50" s="31">
         <f t="shared" si="17"/>
-        <v>1.0482611100925536</v>
+        <v>1.6234105467768241</v>
       </c>
       <c r="BF50" s="31">
         <f t="shared" si="18"/>
-        <v>10.077939105627669</v>
+        <v>10.099945316510055</v>
       </c>
       <c r="BG50" s="31">
         <f t="shared" si="19"/>
-        <v>0.34586588670535495</v>
+        <v>0.39267374444450631</v>
       </c>
       <c r="BH50" s="31">
         <f t="shared" si="20"/>
-        <v>0.27293294335267748</v>
+        <v>0.29633687222225313</v>
       </c>
     </row>
-    <row r="51" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A51" s="32">
         <v>48</v>
       </c>
@@ -10937,11 +10940,11 @@
       </c>
       <c r="AY51" s="31">
         <f t="shared" si="4"/>
-        <v>1.9502129316321359</v>
+        <v>1.9975212478233337</v>
       </c>
       <c r="AZ51" s="31">
         <f t="shared" si="5"/>
-        <v>1.6651490521424952</v>
+        <v>1.6982648734763335</v>
       </c>
       <c r="BA51" s="31">
         <f t="shared" si="6"/>
@@ -10949,34 +10952,34 @@
       </c>
       <c r="BB51" s="31">
         <f t="shared" si="7"/>
-        <v>1.1967346701436834</v>
+        <v>1.3160602794142788</v>
       </c>
       <c r="BC51" s="31">
         <f t="shared" si="15"/>
-        <v>2.9542109027781644</v>
+        <v>2.9991613434302438</v>
       </c>
       <c r="BD51" s="31">
         <f t="shared" si="16"/>
-        <v>2.8506387948964083</v>
+        <v>2.9925637434700008</v>
       </c>
       <c r="BE51" s="31">
         <f t="shared" si="17"/>
-        <v>1.8646647167633872</v>
+        <v>1.9816843611112658</v>
       </c>
       <c r="BF51" s="31">
         <f t="shared" si="18"/>
-        <v>5.5112350034663891</v>
+        <v>5.7856232373753347</v>
       </c>
       <c r="BG51" s="31">
         <f t="shared" si="19"/>
-        <v>9.1791500137610116E-2</v>
+        <v>9.9326205300091452E-2</v>
       </c>
       <c r="BH51" s="31">
         <f t="shared" si="20"/>
-        <v>0.31477547222989327</v>
+        <v>0.50569644706284611</v>
       </c>
     </row>
-    <row r="52" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A52" s="32">
         <v>49</v>
       </c>
@@ -11130,46 +11133,46 @@
       </c>
       <c r="AY52" s="31">
         <f t="shared" si="4"/>
-        <v>2.1378170058914039</v>
+        <v>2.5563964901740972</v>
       </c>
       <c r="AZ52" s="31">
         <f t="shared" si="5"/>
-        <v>1.8849687823599806</v>
+        <v>2.210530603468742</v>
       </c>
       <c r="BA52" s="31">
         <f t="shared" si="6"/>
-        <v>1.9990881180344455</v>
+        <v>1.9999991684712808</v>
       </c>
       <c r="BB52" s="31">
         <f t="shared" si="7"/>
-        <v>2.5537396797031402</v>
+        <v>2.9004258632642719</v>
       </c>
       <c r="BC52" s="31">
         <f t="shared" si="15"/>
-        <v>1.8004043032488202</v>
+        <v>2.425948088093512</v>
       </c>
       <c r="BD52" s="31">
         <f t="shared" si="16"/>
-        <v>2.1880941666919913</v>
+        <v>2.1899982621049769</v>
       </c>
       <c r="BE52" s="31">
         <f t="shared" si="17"/>
-        <v>1.3857518204610066</v>
+        <v>2.2476170399428361</v>
       </c>
       <c r="BF52" s="31">
         <f t="shared" si="18"/>
-        <v>5.7522970853398743</v>
+        <v>7.8684489225468237</v>
       </c>
       <c r="BG52" s="31">
         <f t="shared" si="19"/>
-        <v>0.39963524721377824</v>
+        <v>0.39999966738851239</v>
       </c>
       <c r="BH52" s="31">
         <f t="shared" si="20"/>
-        <v>3.8843491992578509</v>
+        <v>4.7510646581606801</v>
       </c>
     </row>
-    <row r="53" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A53" s="32">
         <v>50</v>
       </c>
@@ -11323,46 +11326,46 @@
       </c>
       <c r="AY53" s="31">
         <f t="shared" si="4"/>
-        <v>2.3768725020641517</v>
+        <v>2.4898930795013721</v>
       </c>
       <c r="AZ53" s="31">
         <f t="shared" si="5"/>
-        <v>2.0097065015137114</v>
+        <v>2.092588258301006</v>
       </c>
       <c r="BA53" s="31">
         <f t="shared" si="6"/>
-        <v>3.399194889693034</v>
+        <v>3.3999997299155806</v>
       </c>
       <c r="BB53" s="31">
         <f t="shared" si="7"/>
-        <v>2.9004258632642719</v>
+        <v>2.9950424956466675</v>
       </c>
       <c r="BC53" s="31">
         <f t="shared" si="15"/>
-        <v>2.3768725020641517</v>
+        <v>2.4898930795013721</v>
       </c>
       <c r="BD53" s="31">
         <f t="shared" si="16"/>
-        <v>3.8988594270651316</v>
+        <v>3.8999996173804057</v>
       </c>
       <c r="BE53" s="31">
         <f t="shared" si="17"/>
-        <v>1.0482611100925536</v>
+        <v>1.6234105467768241</v>
       </c>
       <c r="BF53" s="31">
         <f t="shared" si="18"/>
-        <v>7.373158007155725</v>
+        <v>7.7649626756047549</v>
       </c>
       <c r="BG53" s="31">
         <f t="shared" si="19"/>
-        <v>5.4981549555465365</v>
+        <v>5.4999993810565391</v>
       </c>
       <c r="BH53" s="31">
         <f t="shared" si="20"/>
-        <v>4.7560433649974669</v>
+        <v>4.9878541143343345</v>
       </c>
     </row>
-    <row r="54" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A54" s="32">
         <v>51</v>
       </c>
@@ -11516,15 +11519,15 @@
       </c>
       <c r="AY54" s="31">
         <f t="shared" si="4"/>
-        <v>2.6486644481820587</v>
+        <v>2.6984498006585573</v>
       </c>
       <c r="AZ54" s="31">
         <f t="shared" si="5"/>
-        <v>2.260743401550986</v>
+        <v>2.298814553444779</v>
       </c>
       <c r="BA54" s="31">
         <f t="shared" si="6"/>
-        <v>1.9698026165776814</v>
+        <v>1.9990881180344455</v>
       </c>
       <c r="BB54" s="31">
         <f t="shared" si="7"/>
@@ -11532,11 +11535,11 @@
       </c>
       <c r="BC54" s="31">
         <f t="shared" si="15"/>
-        <v>2.6547039248665225</v>
+        <v>2.6986321770516684</v>
       </c>
       <c r="BD54" s="31">
         <f t="shared" si="16"/>
-        <v>1.9698026165776814</v>
+        <v>1.9990881180344455</v>
       </c>
       <c r="BE54" s="31">
         <f t="shared" si="17"/>
@@ -11544,18 +11547,18 @@
       </c>
       <c r="BF54" s="31">
         <f t="shared" si="18"/>
-        <v>8.5339143911772481</v>
+        <v>8.6949846491894505</v>
       </c>
       <c r="BG54" s="31">
         <f t="shared" si="19"/>
-        <v>0.39094078497330453</v>
+        <v>0.3997264354103337</v>
       </c>
       <c r="BH54" s="31">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A55" s="32">
         <v>52</v>
       </c>
@@ -11709,11 +11712,11 @@
       </c>
       <c r="AY55" s="31">
         <f t="shared" si="4"/>
-        <v>0.1353352832366127</v>
+        <v>1.831563888873422E-2</v>
       </c>
       <c r="AZ55" s="31">
         <f t="shared" si="5"/>
-        <v>0.1353352832366127</v>
+        <v>1.831563888873422E-2</v>
       </c>
       <c r="BA55" s="31">
         <f t="shared" si="6"/>
@@ -11725,7 +11728,7 @@
       </c>
       <c r="BC55" s="31">
         <f t="shared" si="15"/>
-        <v>1.0646647167633874</v>
+        <v>1.1816843611112657</v>
       </c>
       <c r="BD55" s="31">
         <f t="shared" si="16"/>
@@ -11737,7 +11740,7 @@
       </c>
       <c r="BF55" s="31">
         <f t="shared" si="18"/>
-        <v>2.8345947352611458</v>
+        <v>3.1505477750004176</v>
       </c>
       <c r="BG55" s="31">
         <f t="shared" si="19"/>
@@ -11748,7 +11751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A56" s="32">
         <v>53</v>
       </c>
@@ -11902,15 +11905,15 @@
       </c>
       <c r="AY56" s="31">
         <f t="shared" si="4"/>
-        <v>1.9179150013761013</v>
+        <v>1.9932620530009144</v>
       </c>
       <c r="AZ56" s="31">
         <f t="shared" si="5"/>
-        <v>1.6425405009632708</v>
+        <v>1.69528343710064</v>
       </c>
       <c r="BA56" s="31">
         <f t="shared" si="6"/>
-        <v>1.8646647167633872</v>
+        <v>1.9816843611112658</v>
       </c>
       <c r="BB56" s="31">
         <f t="shared" si="7"/>
@@ -11918,11 +11921,11 @@
       </c>
       <c r="BC56" s="31">
         <f t="shared" si="15"/>
-        <v>1.8768725020641517</v>
+        <v>1.9898930795013718</v>
       </c>
       <c r="BD56" s="31">
         <f t="shared" si="16"/>
-        <v>1.796997075145081</v>
+        <v>1.9725265416668987</v>
       </c>
       <c r="BE56" s="31">
         <f t="shared" si="17"/>
@@ -11930,18 +11933,18 @@
       </c>
       <c r="BF56" s="31">
         <f t="shared" si="18"/>
-        <v>5.4224090063300654</v>
+        <v>5.7690054438042067</v>
       </c>
       <c r="BG56" s="31">
         <f t="shared" si="19"/>
-        <v>0.34586588670535495</v>
+        <v>0.39267374444450631</v>
       </c>
       <c r="BH56" s="31">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A57" s="32">
         <v>54</v>
       </c>
@@ -12095,46 +12098,46 @@
       </c>
       <c r="AY57" s="31">
         <f t="shared" si="4"/>
-        <v>2.964164158808166</v>
+        <v>3.4994613388212987</v>
       </c>
       <c r="AZ57" s="31">
         <f t="shared" si="5"/>
-        <v>2.4549364139319749</v>
+        <v>2.851452843571332</v>
       </c>
       <c r="BA57" s="31">
         <f t="shared" si="6"/>
-        <v>3.2578740305559113</v>
+        <v>3.2992284359558242</v>
       </c>
       <c r="BB57" s="31">
         <f t="shared" si="7"/>
-        <v>2.5373727337931555</v>
+        <v>3.0004205027632929</v>
       </c>
       <c r="BC57" s="31">
         <f t="shared" si="15"/>
-        <v>3.9636188915932169</v>
+        <v>3.9996691037377734</v>
       </c>
       <c r="BD57" s="31">
         <f t="shared" si="16"/>
-        <v>2.2578740305559113</v>
+        <v>2.2992284359558242</v>
       </c>
       <c r="BE57" s="31">
         <f t="shared" si="17"/>
-        <v>3.3306095195547107</v>
+        <v>3.8506387948964083</v>
       </c>
       <c r="BF57" s="31">
         <f t="shared" si="18"/>
-        <v>15.039061256130628</v>
+        <v>17.775024620642192</v>
       </c>
       <c r="BG57" s="31">
         <f t="shared" si="19"/>
-        <v>3.6813163541672465</v>
+        <v>3.7487420151453654</v>
       </c>
       <c r="BH57" s="31">
         <f t="shared" si="20"/>
-        <v>3.5843872040126494</v>
+        <v>4.5736256195397615</v>
       </c>
     </row>
-    <row r="58" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A58" s="32">
         <v>55</v>
       </c>
@@ -12288,15 +12291,15 @@
       </c>
       <c r="AY58" s="31">
         <f t="shared" si="4"/>
-        <v>2.9977724497043106</v>
+        <v>2.99999751900984</v>
       </c>
       <c r="AZ58" s="31">
         <f t="shared" si="5"/>
-        <v>2.5982179597634483</v>
+        <v>2.5999980152078721</v>
       </c>
       <c r="BA58" s="31">
         <f t="shared" si="6"/>
-        <v>1.8646647167633872</v>
+        <v>1.9816843611112658</v>
       </c>
       <c r="BB58" s="31">
         <f t="shared" si="7"/>
@@ -12304,30 +12307,30 @@
       </c>
       <c r="BC58" s="31">
         <f t="shared" si="15"/>
-        <v>0.91791500137610116</v>
+        <v>0.99326205300091452</v>
       </c>
       <c r="BD58" s="31">
         <f t="shared" si="16"/>
-        <v>1.4698026165776814</v>
+        <v>1.4990881180344455</v>
       </c>
       <c r="BE58" s="31">
         <f t="shared" si="17"/>
-        <v>1.7537396797031404</v>
+        <v>2.1004258632642721</v>
       </c>
       <c r="BF58" s="31">
         <f t="shared" si="18"/>
-        <v>11.287414340829354</v>
+        <v>11.299985982405596</v>
       </c>
       <c r="BG58" s="31">
         <f t="shared" si="19"/>
-        <v>0.34586588670535495</v>
+        <v>0.39267374444450631</v>
       </c>
       <c r="BH58" s="31">
         <f t="shared" si="20"/>
-        <v>0.27293294335267748</v>
+        <v>0.29633687222225313</v>
       </c>
     </row>
-    <row r="59" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A59" s="32">
         <v>56</v>
       </c>
@@ -12481,11 +12484,11 @@
       </c>
       <c r="AY59" s="31">
         <f t="shared" si="4"/>
-        <v>9.1188196555447298E-4</v>
+        <v>8.3152871910296966E-7</v>
       </c>
       <c r="AZ59" s="31">
         <f t="shared" si="5"/>
-        <v>9.1188196555447298E-4</v>
+        <v>8.3152871910296966E-7</v>
       </c>
       <c r="BA59" s="31">
         <f t="shared" si="6"/>
@@ -12497,7 +12500,7 @@
       </c>
       <c r="BC59" s="31">
         <f t="shared" si="15"/>
-        <v>0.99908811803444553</v>
+        <v>0.9999991684712809</v>
       </c>
       <c r="BD59" s="31">
         <f t="shared" si="16"/>
@@ -12509,7 +12512,7 @@
       </c>
       <c r="BF59" s="31">
         <f t="shared" si="18"/>
-        <v>2.5976291068895585</v>
+        <v>2.5999978380253306</v>
       </c>
       <c r="BG59" s="31">
         <f t="shared" si="19"/>
@@ -12520,7 +12523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A60" s="32">
         <v>57</v>
       </c>
@@ -12674,11 +12677,11 @@
       </c>
       <c r="AY60" s="31">
         <f t="shared" si="4"/>
-        <v>4.5399929762490743E-5</v>
+        <v>2.0611535811454473E-9</v>
       </c>
       <c r="AZ60" s="31">
         <f t="shared" si="5"/>
-        <v>4.5399929762490743E-5</v>
+        <v>2.0611535811454473E-9</v>
       </c>
       <c r="BA60" s="31">
         <f t="shared" si="6"/>
@@ -12690,7 +12693,7 @@
       </c>
       <c r="BC60" s="31">
         <f t="shared" si="15"/>
-        <v>0.37634515056420142</v>
+        <v>0.40723744173037491</v>
       </c>
       <c r="BD60" s="31">
         <f t="shared" si="16"/>
@@ -12713,7 +12716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A61" s="32">
         <v>58</v>
       </c>
@@ -12867,11 +12870,11 @@
       </c>
       <c r="AY61" s="31">
         <f t="shared" si="4"/>
-        <v>1.2340980408664937E-4</v>
+        <v>1.5229979721809173E-8</v>
       </c>
       <c r="AZ61" s="31">
         <f t="shared" si="5"/>
-        <v>1.2340980408664937E-4</v>
+        <v>1.5229979721809173E-8</v>
       </c>
       <c r="BA61" s="31">
         <f t="shared" si="6"/>
@@ -12883,7 +12886,7 @@
       </c>
       <c r="BC61" s="31">
         <f t="shared" si="15"/>
-        <v>1.7998519082350959</v>
+        <v>1.7999999817240244</v>
       </c>
       <c r="BD61" s="31">
         <f t="shared" si="16"/>
@@ -12895,7 +12898,7 @@
       </c>
       <c r="BF61" s="31">
         <f t="shared" si="18"/>
-        <v>5.0995557247052883</v>
+        <v>5.0999999451720726</v>
       </c>
       <c r="BG61" s="31">
         <f t="shared" si="19"/>
@@ -12906,7 +12909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A62" s="27">
         <v>59</v>
       </c>
@@ -13060,11 +13063,11 @@
       </c>
       <c r="AY62" s="31">
         <f t="shared" si="4"/>
-        <v>4.5399929762490743E-5</v>
+        <v>2.0611535811454473E-9</v>
       </c>
       <c r="AZ62" s="31">
         <f t="shared" si="5"/>
-        <v>4.5399929762490743E-5</v>
+        <v>2.0611535811454473E-9</v>
       </c>
       <c r="BA62" s="31">
         <f t="shared" si="6"/>
@@ -13076,7 +13079,7 @@
       </c>
       <c r="BC62" s="31">
         <f t="shared" si="15"/>
-        <v>2.0499341701018445</v>
+        <v>2.0499999970113274</v>
       </c>
       <c r="BD62" s="31">
         <f t="shared" si="16"/>
@@ -13088,7 +13091,7 @@
       </c>
       <c r="BF62" s="31">
         <f t="shared" si="18"/>
-        <v>5.9997276004214246</v>
+        <v>5.9999999876330783</v>
       </c>
       <c r="BG62" s="31">
         <f t="shared" si="19"/>
@@ -13099,7 +13102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A63" s="27">
         <v>60</v>
       </c>
@@ -13253,11 +13256,11 @@
       </c>
       <c r="AY63" s="31">
         <f t="shared" si="4"/>
-        <v>4.5399929762490743E-5</v>
+        <v>2.0611535811454473E-9</v>
       </c>
       <c r="AZ63" s="31">
         <f t="shared" si="5"/>
-        <v>4.5399929762490743E-5</v>
+        <v>2.0611535811454473E-9</v>
       </c>
       <c r="BA63" s="31">
         <f t="shared" si="6"/>
@@ -13269,7 +13272,7 @@
       </c>
       <c r="BC63" s="31">
         <f t="shared" si="15"/>
-        <v>1.6199536920716424</v>
+        <v>1.6199999978976232</v>
       </c>
       <c r="BD63" s="31">
         <f t="shared" si="16"/>
@@ -13281,7 +13284,7 @@
       </c>
       <c r="BF63" s="31">
         <f t="shared" si="18"/>
-        <v>4.4997957003160689</v>
+        <v>4.4999999907248087</v>
       </c>
       <c r="BG63" s="31">
         <f t="shared" si="19"/>
@@ -13292,7 +13295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A64" s="27">
         <v>61</v>
       </c>
@@ -13446,11 +13449,11 @@
       </c>
       <c r="AY64" s="31">
         <f t="shared" si="4"/>
-        <v>4.5399929762490743E-5</v>
+        <v>2.0611535811454473E-9</v>
       </c>
       <c r="AZ64" s="31">
         <f t="shared" si="5"/>
-        <v>4.5399929762490743E-5</v>
+        <v>2.0611535811454473E-9</v>
       </c>
       <c r="BA64" s="31">
         <f t="shared" si="6"/>
@@ -13462,7 +13465,7 @@
       </c>
       <c r="BC64" s="31">
         <f t="shared" si="15"/>
-        <v>1.1399754840379281</v>
+        <v>1.1399999988869771</v>
       </c>
       <c r="BD64" s="31">
         <f t="shared" si="16"/>
@@ -13474,7 +13477,7 @@
       </c>
       <c r="BF64" s="31">
         <f t="shared" si="18"/>
-        <v>2.9998638002107123</v>
+        <v>2.9999999938165391</v>
       </c>
       <c r="BG64" s="31">
         <f t="shared" si="19"/>
@@ -13485,7 +13488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A65" s="27">
         <v>62</v>
       </c>
@@ -13639,11 +13642,11 @@
       </c>
       <c r="AY65" s="31">
         <f t="shared" si="4"/>
-        <v>4.5399929762490743E-5</v>
+        <v>2.0611535811454473E-9</v>
       </c>
       <c r="AZ65" s="31">
         <f t="shared" si="5"/>
-        <v>4.5399929762490743E-5</v>
+        <v>2.0611535811454473E-9</v>
       </c>
       <c r="BA65" s="31">
         <f t="shared" si="6"/>
@@ -13655,7 +13658,7 @@
       </c>
       <c r="BC65" s="31">
         <f t="shared" si="15"/>
-        <v>0.79997321404144006</v>
+        <v>0.79999999878391936</v>
       </c>
       <c r="BD65" s="31">
         <f t="shared" si="16"/>
@@ -13667,7 +13670,7 @@
       </c>
       <c r="BF65" s="31">
         <f t="shared" si="18"/>
-        <v>1.999909200140475</v>
+        <v>1.9999999958776928</v>
       </c>
       <c r="BG65" s="31">
         <f t="shared" si="19"/>
@@ -13678,7 +13681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A66" s="27">
         <v>63</v>
       </c>
@@ -13832,11 +13835,11 @@
       </c>
       <c r="AY66" s="31">
         <f t="shared" si="4"/>
-        <v>4.5399929762490743E-5</v>
+        <v>2.0611535811454473E-9</v>
       </c>
       <c r="AZ66" s="31">
         <f t="shared" si="5"/>
-        <v>4.5399929762490743E-5</v>
+        <v>2.0611535811454473E-9</v>
       </c>
       <c r="BA66" s="31">
         <f t="shared" si="6"/>
@@ -13848,7 +13851,7 @@
       </c>
       <c r="BC66" s="31">
         <f t="shared" si="15"/>
-        <v>0.60998184002809497</v>
+        <v>0.6099999991755386</v>
       </c>
       <c r="BD66" s="31">
         <f t="shared" si="16"/>
@@ -13860,7 +13863,7 @@
       </c>
       <c r="BF66" s="31">
         <f t="shared" si="18"/>
-        <v>0.99995460007023751</v>
+        <v>0.99999999793884642</v>
       </c>
       <c r="BG66" s="31">
         <f t="shared" si="19"/>
@@ -13871,7 +13874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A67" s="27">
         <v>64</v>
       </c>
@@ -13988,11 +13991,11 @@
         <v>0</v>
       </c>
       <c r="AP67" s="31">
-        <f t="shared" ref="AP67:AP101" si="23">K67</f>
+        <f t="shared" ref="AP67:AP71" si="23">K67</f>
         <v>0</v>
       </c>
       <c r="AQ67" s="31">
-        <f t="shared" ref="AQ67:AQ101" si="24">N67</f>
+        <f t="shared" ref="AQ67:AQ71" si="24">N67</f>
         <v>0</v>
       </c>
       <c r="AR67" s="31">
@@ -14025,11 +14028,11 @@
       </c>
       <c r="AY67" s="31">
         <f t="shared" ref="AY67:AY75" si="25">1+((E67-1)*(1-EXP(-F67*$BI$2)))</f>
-        <v>3.3546262790251635E-4</v>
+        <v>1.1253517473441832E-7</v>
       </c>
       <c r="AZ67" s="31">
         <f t="shared" ref="AZ67:AZ75" si="26">1+((H67-1)*(1-EXP(-I67*$BI$2)))</f>
-        <v>3.3546262790251635E-4</v>
+        <v>1.1253517473441832E-7</v>
       </c>
       <c r="BA67" s="31">
         <f t="shared" ref="BA67:BA75" si="27">1+((K67-1)*(1-EXP(-L67*$BI$2)))</f>
@@ -14041,7 +14044,7 @@
       </c>
       <c r="BC67" s="31">
         <f t="shared" si="15"/>
-        <v>1.0996645373720975</v>
+        <v>1.0999998874648254</v>
       </c>
       <c r="BD67" s="31">
         <f t="shared" si="16"/>
@@ -14053,7 +14056,7 @@
       </c>
       <c r="BF67" s="31">
         <f t="shared" si="18"/>
-        <v>2.8990942509046631</v>
+        <v>2.8999996961550281</v>
       </c>
       <c r="BG67" s="31">
         <f t="shared" si="19"/>
@@ -14064,7 +14067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A68" s="33">
         <v>65</v>
       </c>
@@ -14218,46 +14221,46 @@
       </c>
       <c r="AY68" s="31">
         <f t="shared" si="25"/>
-        <v>2.9633687222225316</v>
+        <v>2.9993290747441952</v>
       </c>
       <c r="AZ68" s="31">
         <f t="shared" si="26"/>
-        <v>2.5706949777780252</v>
+        <v>2.599463259795356</v>
       </c>
       <c r="BA68" s="31">
         <f t="shared" si="27"/>
-        <v>2.0375976601160648</v>
+        <v>2.1780212333335189</v>
       </c>
       <c r="BB68" s="31">
         <f t="shared" si="28"/>
-        <v>1.6321205588285577</v>
+        <v>1.8646647167633872</v>
       </c>
       <c r="BC68" s="31">
         <f t="shared" ref="BC68:BC75" si="36">$Q68*(1-EXP(-$R68*$BI$2))+$S68</f>
-        <v>2.2604555023393722</v>
+        <v>2.3885454901015546</v>
       </c>
       <c r="BD68" s="31">
         <f t="shared" ref="BD68:BD75" si="37">$T68*(1-EXP(-$U68*$BI$2))+$V68</f>
-        <v>2.296997075145081</v>
+        <v>2.4725265416668987</v>
       </c>
       <c r="BE68" s="31">
         <f t="shared" ref="BE68:BE75" si="38">$W68*(1-EXP(-$X68*$BI$2))+$Y68</f>
-        <v>2.8616617919084684</v>
+        <v>3.1542109027781642</v>
       </c>
       <c r="BF68" s="31">
         <f t="shared" ref="BF68:BF75" si="39">AB68+((Z68-AB68)*(1-EXP(-AA68*$BI$2)))</f>
-        <v>9.8351592500013929</v>
+        <v>9.996980836348877</v>
       </c>
       <c r="BG68" s="31">
         <f t="shared" ref="BG68:BG75" si="40">AE68+((AC68-AE68)*(1-EXP(-AD68*$BI$2)))</f>
-        <v>0.44586588670535499</v>
+        <v>0.49267374444450629</v>
       </c>
       <c r="BH68" s="31">
         <f t="shared" ref="BH68:BH75" si="41">AH68+((AF68-AH68)*(1-EXP(-AG68*$BI$2)))</f>
-        <v>1.2481808382428365</v>
+        <v>1.596997075145081</v>
       </c>
     </row>
-    <row r="69" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A69" s="33">
         <v>66</v>
       </c>
@@ -14411,11 +14414,11 @@
       </c>
       <c r="AY69" s="31">
         <f t="shared" si="25"/>
-        <v>4.5399929762490743E-5</v>
+        <v>2.0611535811454473E-9</v>
       </c>
       <c r="AZ69" s="31">
         <f t="shared" si="26"/>
-        <v>4.5399929762490743E-5</v>
+        <v>2.0611535811454473E-9</v>
       </c>
       <c r="BA69" s="31">
         <f t="shared" si="27"/>
@@ -14427,7 +14430,7 @@
       </c>
       <c r="BC69" s="31">
         <f t="shared" si="36"/>
-        <v>1.7699713980442495</v>
+        <v>1.7699999987014732</v>
       </c>
       <c r="BD69" s="31">
         <f t="shared" si="37"/>
@@ -14439,7 +14442,7 @@
       </c>
       <c r="BF69" s="31">
         <f t="shared" si="39"/>
-        <v>4.9997730003511878</v>
+        <v>4.9999999896942322</v>
       </c>
       <c r="BG69" s="31">
         <f t="shared" si="40"/>
@@ -14450,7 +14453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A70" s="33">
         <v>67</v>
       </c>
@@ -14604,46 +14607,46 @@
       </c>
       <c r="AY70" s="31">
         <f t="shared" si="25"/>
-        <v>3.9925637434696926</v>
+        <v>3.9999815673626311</v>
       </c>
       <c r="AZ70" s="31">
         <f t="shared" si="26"/>
-        <v>2.4787521766663767E-3</v>
+        <v>6.1442123533428372E-6</v>
       </c>
       <c r="BA70" s="31">
         <f t="shared" si="27"/>
-        <v>0.1353352832366127</v>
+        <v>1.831563888873422E-2</v>
       </c>
       <c r="BB70" s="31">
         <f t="shared" si="28"/>
-        <v>0.35566310879073793</v>
+        <v>0.33415947977501392</v>
       </c>
       <c r="BC70" s="31">
         <f t="shared" si="36"/>
-        <v>3.9918201178170003</v>
+        <v>3.9999797240992336</v>
       </c>
       <c r="BD70" s="31">
         <f t="shared" si="37"/>
-        <v>2.796997075145081</v>
+        <v>2.9725265416668987</v>
       </c>
       <c r="BE70" s="31">
         <f t="shared" si="38"/>
-        <v>1.9332534600793478</v>
+        <v>1.9977724497043103</v>
       </c>
       <c r="BF70" s="31">
         <f t="shared" si="39"/>
-        <v>14.048280854199009</v>
+        <v>14.078783268128415</v>
       </c>
       <c r="BG70" s="31">
         <f t="shared" si="40"/>
-        <v>1.4659436633270864</v>
+        <v>1.6443291993078017</v>
       </c>
       <c r="BH70" s="31">
         <f t="shared" si="41"/>
-        <v>0.32255400241059418</v>
+        <v>0.33305452062964425</v>
       </c>
     </row>
-    <row r="71" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A71" s="33">
         <v>68</v>
       </c>
@@ -14797,7 +14800,7 @@
       </c>
       <c r="AY71" s="31">
         <f t="shared" si="25"/>
-        <v>2.4962818717350004</v>
+        <v>2.4999907836814699</v>
       </c>
       <c r="AZ71" s="31">
         <f t="shared" si="26"/>
@@ -14809,34 +14812,34 @@
       </c>
       <c r="BB71" s="31">
         <f t="shared" si="28"/>
-        <v>5.0363619186734887</v>
+        <v>5.0812018492551259</v>
       </c>
       <c r="BC71" s="31">
         <f t="shared" si="36"/>
-        <v>3.6925637434700009</v>
+        <v>3.6999815673629399</v>
       </c>
       <c r="BD71" s="31">
         <f t="shared" si="37"/>
-        <v>0.99326205300091452</v>
+        <v>0.99995460007023751</v>
       </c>
       <c r="BE71" s="31">
         <f t="shared" si="38"/>
-        <v>3.9555640138470309</v>
+        <v>3.9995063607836534</v>
       </c>
       <c r="BF71" s="31">
         <f t="shared" si="39"/>
-        <v>12.122925250294575</v>
+        <v>12.148655184829947</v>
       </c>
       <c r="BG71" s="31">
         <f t="shared" si="40"/>
-        <v>5.0541347035058047E-2</v>
+        <v>5.0812069612257114E-2</v>
       </c>
       <c r="BH71" s="31">
         <f t="shared" si="41"/>
-        <v>5.0253408545524554</v>
+        <v>5.0810794162919573</v>
       </c>
     </row>
-    <row r="72" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A72" s="33">
         <v>69</v>
       </c>
@@ -14990,11 +14993,11 @@
       </c>
       <c r="AY72" s="31">
         <f t="shared" si="25"/>
-        <v>4.5399929762490743E-5</v>
+        <v>2.0611535811454473E-9</v>
       </c>
       <c r="AZ72" s="31">
         <f t="shared" si="26"/>
-        <v>4.5399929762490743E-5</v>
+        <v>2.0611535811454473E-9</v>
       </c>
       <c r="BA72" s="31">
         <f t="shared" si="27"/>
@@ -15006,7 +15009,7 @@
       </c>
       <c r="BC72" s="31">
         <f t="shared" si="36"/>
-        <v>0.37634515056420142</v>
+        <v>0.40723744173037491</v>
       </c>
       <c r="BD72" s="31">
         <f t="shared" si="37"/>
@@ -15029,7 +15032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A73" s="27">
         <v>70</v>
       </c>
@@ -15183,11 +15186,11 @@
       </c>
       <c r="AY73" s="31">
         <f t="shared" si="25"/>
-        <v>4.5399929762490743E-5</v>
+        <v>2.0611535811454473E-9</v>
       </c>
       <c r="AZ73" s="31">
         <f t="shared" si="26"/>
-        <v>4.5399929762490743E-5</v>
+        <v>2.0611535811454473E-9</v>
       </c>
       <c r="BA73" s="31">
         <f t="shared" si="27"/>
@@ -15199,19 +15202,19 @@
       </c>
       <c r="BC73" s="31">
         <f t="shared" si="36"/>
-        <v>1.1589575006880506</v>
+        <v>1.1966310265004572</v>
       </c>
       <c r="BD73" s="31">
         <f t="shared" si="37"/>
-        <v>1.8646647167633872</v>
+        <v>1.9816843611112658</v>
       </c>
       <c r="BE73" s="31">
         <f t="shared" si="38"/>
-        <v>1.5646647167633874</v>
+        <v>1.6816843611112657</v>
       </c>
       <c r="BF73" s="31">
         <f t="shared" si="39"/>
-        <v>1.59992736011238</v>
+        <v>1.5999999967021543</v>
       </c>
       <c r="BG73" s="31">
         <f t="shared" si="40"/>
@@ -15222,7 +15225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A74" s="27">
         <v>71</v>
       </c>
@@ -15376,11 +15379,11 @@
       </c>
       <c r="AY74" s="31">
         <f t="shared" si="25"/>
-        <v>4.5399929762490743E-5</v>
+        <v>2.0611535811454473E-9</v>
       </c>
       <c r="AZ74" s="31">
         <f t="shared" si="26"/>
-        <v>4.5399929762490743E-5</v>
+        <v>2.0611535811454473E-9</v>
       </c>
       <c r="BA74" s="31">
         <f t="shared" si="27"/>
@@ -15392,19 +15395,19 @@
       </c>
       <c r="BC74" s="31">
         <f t="shared" si="36"/>
-        <v>1.6913482014861891</v>
+        <v>1.7727230172409878</v>
       </c>
       <c r="BD74" s="31">
         <f t="shared" si="37"/>
-        <v>2.296997075145081</v>
+        <v>2.4725265416668987</v>
       </c>
       <c r="BE74" s="31">
         <f t="shared" si="38"/>
-        <v>2.8616617919084684</v>
+        <v>3.1542109027781642</v>
       </c>
       <c r="BF74" s="31">
         <f t="shared" si="39"/>
-        <v>1.999909200140475</v>
+        <v>1.9999999958776928</v>
       </c>
       <c r="BG74" s="31">
         <f t="shared" si="40"/>
@@ -15415,7 +15418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A75" s="32">
         <v>76</v>
       </c>
@@ -15569,19 +15572,19 @@
       </c>
       <c r="AY75" s="31">
         <f t="shared" si="25"/>
-        <v>2.2850810019265415</v>
+        <v>2.39056687420128</v>
       </c>
       <c r="AZ75" s="31">
         <f t="shared" si="26"/>
-        <v>2.0097065015137114</v>
+        <v>2.092588258301006</v>
       </c>
       <c r="BA75" s="31">
         <f t="shared" si="27"/>
-        <v>2.296997075145081</v>
+        <v>2.4725265416668987</v>
       </c>
       <c r="BB75" s="31">
         <f t="shared" si="28"/>
-        <v>2.0375976601160648</v>
+        <v>2.1780212333335189</v>
       </c>
       <c r="BC75" s="31" t="e">
         <f t="shared" si="36"/>
@@ -15597,15 +15600,15 @@
       </c>
       <c r="BF75" s="31">
         <f t="shared" si="39"/>
-        <v>6.9321155078437773</v>
+        <v>7.3615937021052131</v>
       </c>
       <c r="BG75" s="31">
         <f t="shared" si="40"/>
-        <v>0.70526530173437119</v>
+        <v>0.78717905277788613</v>
       </c>
       <c r="BH75" s="31">
         <f t="shared" si="41"/>
-        <v>2.0751953202321296</v>
+        <v>2.3560424666670379</v>
       </c>
     </row>
   </sheetData>
